--- a/database/industries/kaghaz/chekapa/product/monthly_seprated.xlsx
+++ b/database/industries/kaghaz/chekapa/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E707A18-B624-4DEE-8962-5E565557DDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 2 منتهی به 1397/10</t>
@@ -186,6 +181,12 @@
     <t>ماه 1 منتهی به 1401/09</t>
   </si>
   <si>
+    <t>ماه 2 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +482,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -493,7 +494,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -540,6 +541,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -575,6 +593,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1475,11 +1510,11 @@
       <c r="AA11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>58</v>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
       </c>
       <c r="AD11" s="11">
         <v>0</v>
@@ -1490,14 +1525,14 @@
       <c r="AF11" s="11">
         <v>0</v>
       </c>
-      <c r="AG11" s="11">
-        <v>0</v>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH11" s="11">
         <v>0</v>
       </c>
-      <c r="AI11" s="11" t="s">
-        <v>58</v>
+      <c r="AI11" s="11">
+        <v>0</v>
       </c>
       <c r="AJ11" s="11">
         <v>0</v>
@@ -1508,26 +1543,26 @@
       <c r="AL11" s="11">
         <v>0</v>
       </c>
-      <c r="AM11" s="11">
-        <v>0</v>
+      <c r="AM11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN11" s="11">
         <v>0</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>58</v>
+      <c r="AO11" s="11">
+        <v>0</v>
       </c>
       <c r="AP11" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AQ11" s="11">
         <v>0</v>
       </c>
       <c r="AR11" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
@@ -1547,14 +1582,14 @@
       <c r="AY11" s="11">
         <v>0</v>
       </c>
-      <c r="AZ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="11" t="s">
-        <v>58</v>
+      <c r="AZ11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB11" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1634,86 +1669,86 @@
       <c r="AA12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>85</v>
       </c>
       <c r="AD12" s="13">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="AE12" s="13">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="AF12" s="13">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>137</v>
+        <v>1901</v>
       </c>
       <c r="AH12" s="13">
         <v>0</v>
       </c>
       <c r="AI12" s="13">
-        <v>1901</v>
+        <v>57</v>
       </c>
       <c r="AJ12" s="13">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="AK12" s="13">
-        <v>57</v>
+        <v>1155</v>
       </c>
       <c r="AL12" s="13">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="AM12" s="13">
-        <v>1155</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="13">
-        <v>206</v>
+        <v>1018</v>
       </c>
       <c r="AO12" s="13">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="AP12" s="13">
-        <v>1018</v>
+        <v>1416</v>
       </c>
       <c r="AQ12" s="13">
-        <v>841</v>
+        <v>2367</v>
       </c>
       <c r="AR12" s="13">
-        <v>1416</v>
+        <v>3756</v>
       </c>
       <c r="AS12" s="13">
-        <v>2367</v>
+        <v>3596</v>
       </c>
       <c r="AT12" s="13">
-        <v>3756</v>
+        <v>1309</v>
       </c>
       <c r="AU12" s="13">
-        <v>3596</v>
+        <v>3061</v>
       </c>
       <c r="AV12" s="13">
-        <v>1309</v>
+        <v>2868</v>
       </c>
       <c r="AW12" s="13">
-        <v>3061</v>
+        <v>1721</v>
       </c>
       <c r="AX12" s="13">
-        <v>2868</v>
+        <v>3500</v>
       </c>
       <c r="AY12" s="13">
-        <v>3036</v>
+        <v>1640</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3500</v>
+        <v>1199</v>
       </c>
       <c r="BA12" s="13">
-        <v>1640</v>
+        <v>1256</v>
       </c>
       <c r="BB12" s="13">
-        <v>1199</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1793,86 +1828,86 @@
       <c r="AA13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC13" s="11" t="s">
-        <v>58</v>
+      <c r="AB13" s="11">
+        <v>1394</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>1917</v>
       </c>
       <c r="AD13" s="11">
-        <v>1394</v>
+        <v>1849</v>
       </c>
       <c r="AE13" s="11">
-        <v>1917</v>
+        <v>1960</v>
       </c>
       <c r="AF13" s="11">
-        <v>1849</v>
+        <v>1946</v>
       </c>
       <c r="AG13" s="11">
-        <v>1960</v>
+        <v>2115</v>
       </c>
       <c r="AH13" s="11">
-        <v>1946</v>
+        <v>1996</v>
       </c>
       <c r="AI13" s="11">
-        <v>2115</v>
+        <v>916</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1996</v>
+        <v>822</v>
       </c>
       <c r="AK13" s="11">
-        <v>916</v>
+        <v>1682</v>
       </c>
       <c r="AL13" s="11">
-        <v>822</v>
+        <v>1795</v>
       </c>
       <c r="AM13" s="11">
-        <v>1682</v>
+        <v>1868</v>
       </c>
       <c r="AN13" s="11">
-        <v>1795</v>
+        <v>1036</v>
       </c>
       <c r="AO13" s="11">
-        <v>1868</v>
+        <v>2088</v>
       </c>
       <c r="AP13" s="11">
-        <v>1036</v>
+        <v>2006</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2088</v>
+        <v>1881</v>
       </c>
       <c r="AR13" s="11">
-        <v>2006</v>
+        <v>2137</v>
       </c>
       <c r="AS13" s="11">
-        <v>1881</v>
+        <v>2023</v>
       </c>
       <c r="AT13" s="11">
-        <v>2137</v>
+        <v>1836</v>
       </c>
       <c r="AU13" s="11">
-        <v>2023</v>
+        <v>2487</v>
       </c>
       <c r="AV13" s="11">
-        <v>1836</v>
+        <v>2350</v>
       </c>
       <c r="AW13" s="11">
-        <v>2487</v>
+        <v>1999</v>
       </c>
       <c r="AX13" s="11">
-        <v>2350</v>
+        <v>1718</v>
       </c>
       <c r="AY13" s="11">
-        <v>2052</v>
+        <v>1568</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1718</v>
+        <v>1694</v>
       </c>
       <c r="BA13" s="11">
-        <v>1568</v>
+        <v>1591</v>
       </c>
       <c r="BB13" s="11">
-        <v>1694</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
@@ -1952,86 +1987,86 @@
       <c r="AA14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>58</v>
+      <c r="AB14" s="13">
+        <v>3215</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>3780</v>
       </c>
       <c r="AD14" s="13">
-        <v>3215</v>
+        <v>3030</v>
       </c>
       <c r="AE14" s="13">
-        <v>3780</v>
+        <v>2713</v>
       </c>
       <c r="AF14" s="13">
-        <v>3030</v>
+        <v>1624</v>
       </c>
       <c r="AG14" s="13">
-        <v>2713</v>
+        <v>1999</v>
       </c>
       <c r="AH14" s="13">
-        <v>1624</v>
+        <v>3342</v>
       </c>
       <c r="AI14" s="13">
-        <v>1999</v>
+        <v>2045</v>
       </c>
       <c r="AJ14" s="13">
-        <v>3342</v>
+        <v>2021</v>
       </c>
       <c r="AK14" s="13">
-        <v>2045</v>
+        <v>2157</v>
       </c>
       <c r="AL14" s="13">
-        <v>2021</v>
+        <v>2673</v>
       </c>
       <c r="AM14" s="13">
-        <v>2157</v>
+        <v>2702</v>
       </c>
       <c r="AN14" s="13">
-        <v>2673</v>
+        <v>1334</v>
       </c>
       <c r="AO14" s="13">
-        <v>2702</v>
+        <v>1830</v>
       </c>
       <c r="AP14" s="13">
-        <v>1334</v>
+        <v>1055</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1830</v>
+        <v>80</v>
       </c>
       <c r="AR14" s="13">
-        <v>1055</v>
+        <v>1</v>
       </c>
       <c r="AS14" s="13">
-        <v>80</v>
+        <v>730</v>
       </c>
       <c r="AT14" s="13">
-        <v>1</v>
+        <v>1649</v>
       </c>
       <c r="AU14" s="13">
-        <v>730</v>
+        <v>342</v>
       </c>
       <c r="AV14" s="13">
-        <v>1649</v>
+        <v>521</v>
       </c>
       <c r="AW14" s="13">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="AX14" s="13">
-        <v>521</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="13">
-        <v>446</v>
+        <v>852</v>
       </c>
       <c r="AZ14" s="13">
-        <v>0</v>
+        <v>2840</v>
       </c>
       <c r="BA14" s="13">
-        <v>852</v>
+        <v>1755</v>
       </c>
       <c r="BB14" s="13">
-        <v>2840</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
@@ -2120,77 +2155,77 @@
       <c r="AD15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>58</v>
+      <c r="AE15" s="11">
+        <v>848</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1309</v>
       </c>
       <c r="AG15" s="11">
-        <v>848</v>
+        <v>47</v>
       </c>
       <c r="AH15" s="11">
-        <v>1309</v>
+        <v>3</v>
       </c>
       <c r="AI15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ15" s="11">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="AK15" s="11">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AL15" s="11">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AM15" s="11">
-        <v>15</v>
+        <v>1211</v>
       </c>
       <c r="AN15" s="11">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="AO15" s="11">
-        <v>1211</v>
+        <v>395</v>
       </c>
       <c r="AP15" s="11">
-        <v>246</v>
+        <v>1112</v>
       </c>
       <c r="AQ15" s="11">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="AR15" s="11">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="11">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="AT15" s="11">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="AU15" s="11">
-        <v>275</v>
+        <v>972</v>
       </c>
       <c r="AV15" s="11">
-        <v>991</v>
+        <v>208</v>
       </c>
       <c r="AW15" s="11">
-        <v>972</v>
+        <v>2099</v>
       </c>
       <c r="AX15" s="11">
-        <v>208</v>
+        <v>1161</v>
       </c>
       <c r="AY15" s="11">
-        <v>2082</v>
+        <v>1149</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1161</v>
+        <v>44</v>
       </c>
       <c r="BA15" s="11">
-        <v>1149</v>
+        <v>233</v>
       </c>
       <c r="BB15" s="11">
-        <v>44</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
@@ -2270,14 +2305,14 @@
       <c r="AA16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>58</v>
+      <c r="AB16" s="13">
+        <v>200</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
       </c>
       <c r="AD16" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="13">
         <v>0</v>
@@ -2285,14 +2320,14 @@
       <c r="AF16" s="13">
         <v>0</v>
       </c>
-      <c r="AG16" s="13">
-        <v>0</v>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH16" s="13">
         <v>0</v>
       </c>
-      <c r="AI16" s="13" t="s">
-        <v>58</v>
+      <c r="AI16" s="13">
+        <v>0</v>
       </c>
       <c r="AJ16" s="13">
         <v>0</v>
@@ -2303,14 +2338,14 @@
       <c r="AL16" s="13">
         <v>0</v>
       </c>
-      <c r="AM16" s="13">
-        <v>0</v>
+      <c r="AM16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN16" s="13">
         <v>0</v>
       </c>
-      <c r="AO16" s="13" t="s">
-        <v>58</v>
+      <c r="AO16" s="13">
+        <v>0</v>
       </c>
       <c r="AP16" s="13">
         <v>0</v>
@@ -2342,11 +2377,11 @@
       <c r="AY16" s="13">
         <v>0</v>
       </c>
-      <c r="AZ16" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="13">
-        <v>0</v>
+      <c r="AZ16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB16" s="13" t="s">
         <v>58</v>
@@ -2428,85 +2463,85 @@
         <v>0</v>
       </c>
       <c r="AB17" s="15">
-        <v>0</v>
+        <v>4809</v>
       </c>
       <c r="AC17" s="15">
-        <v>0</v>
+        <v>5782</v>
       </c>
       <c r="AD17" s="15">
-        <v>4809</v>
+        <v>5253</v>
       </c>
       <c r="AE17" s="15">
-        <v>5782</v>
+        <v>5658</v>
       </c>
       <c r="AF17" s="15">
-        <v>5253</v>
+        <v>4879</v>
       </c>
       <c r="AG17" s="15">
-        <v>5658</v>
+        <v>6062</v>
       </c>
       <c r="AH17" s="15">
-        <v>4879</v>
+        <v>5341</v>
       </c>
       <c r="AI17" s="15">
-        <v>6062</v>
+        <v>3064</v>
       </c>
       <c r="AJ17" s="15">
-        <v>5341</v>
+        <v>3324</v>
       </c>
       <c r="AK17" s="15">
-        <v>3064</v>
+        <v>5009</v>
       </c>
       <c r="AL17" s="15">
-        <v>3324</v>
+        <v>4973</v>
       </c>
       <c r="AM17" s="15">
-        <v>5009</v>
+        <v>5781</v>
       </c>
       <c r="AN17" s="15">
-        <v>4973</v>
+        <v>3634</v>
       </c>
       <c r="AO17" s="15">
-        <v>5781</v>
+        <v>5154</v>
       </c>
       <c r="AP17" s="15">
-        <v>3634</v>
+        <v>5607</v>
       </c>
       <c r="AQ17" s="15">
-        <v>5154</v>
+        <v>4701</v>
       </c>
       <c r="AR17" s="15">
-        <v>5607</v>
+        <v>5894</v>
       </c>
       <c r="AS17" s="15">
-        <v>4683</v>
+        <v>6624</v>
       </c>
       <c r="AT17" s="15">
-        <v>5894</v>
+        <v>5785</v>
       </c>
       <c r="AU17" s="15">
-        <v>6624</v>
+        <v>6862</v>
       </c>
       <c r="AV17" s="15">
-        <v>5785</v>
+        <v>5947</v>
       </c>
       <c r="AW17" s="15">
-        <v>6862</v>
+        <v>6100</v>
       </c>
       <c r="AX17" s="15">
-        <v>5947</v>
+        <v>6379</v>
       </c>
       <c r="AY17" s="15">
-        <v>7616</v>
+        <v>5209</v>
       </c>
       <c r="AZ17" s="15">
-        <v>6379</v>
+        <v>5777</v>
       </c>
       <c r="BA17" s="15">
-        <v>5209</v>
+        <v>4835</v>
       </c>
       <c r="BB17" s="15">
-        <v>5777</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
@@ -2643,11 +2678,11 @@
       <c r="AA19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC19" s="11" t="s">
-        <v>58</v>
+      <c r="AB19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>0</v>
       </c>
       <c r="AD19" s="11">
         <v>0</v>
@@ -2658,14 +2693,14 @@
       <c r="AF19" s="11">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11">
         <v>0</v>
       </c>
-      <c r="AI19" s="11" t="s">
-        <v>58</v>
+      <c r="AI19" s="11">
+        <v>0</v>
       </c>
       <c r="AJ19" s="11">
         <v>0</v>
@@ -2676,11 +2711,11 @@
       <c r="AL19" s="11">
         <v>0</v>
       </c>
-      <c r="AM19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>0</v>
+      <c r="AM19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO19" s="11" t="s">
         <v>58</v>
@@ -2802,53 +2837,53 @@
       <c r="AA20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC20" s="13" t="s">
-        <v>58</v>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>24</v>
       </c>
       <c r="AD20" s="13">
         <v>0</v>
       </c>
       <c r="AE20" s="13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <v>0</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="13" t="s">
-        <v>58</v>
+        <v>284</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>274</v>
       </c>
       <c r="AJ20" s="13">
-        <v>284</v>
+        <v>579</v>
       </c>
       <c r="AK20" s="13">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="AL20" s="13">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="13">
-        <v>47</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="13">
         <v>1204</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ20" s="13" t="s">
-        <v>58</v>
+      <c r="AN20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>0</v>
       </c>
       <c r="AR20" s="13">
         <v>0</v>
@@ -2874,11 +2909,11 @@
       <c r="AY20" s="13">
         <v>0</v>
       </c>
-      <c r="AZ20" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="13">
-        <v>0</v>
+      <c r="AZ20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB20" s="13" t="s">
         <v>58</v>
@@ -2961,11 +2996,11 @@
       <c r="AA21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC21" s="11" t="s">
-        <v>58</v>
+      <c r="AB21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>0</v>
       </c>
       <c r="AD21" s="11">
         <v>0</v>
@@ -2976,71 +3011,71 @@
       <c r="AF21" s="11">
         <v>0</v>
       </c>
-      <c r="AG21" s="11">
-        <v>0</v>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH21" s="11">
         <v>0</v>
       </c>
-      <c r="AI21" s="11" t="s">
-        <v>58</v>
+      <c r="AI21" s="11">
+        <v>91</v>
       </c>
       <c r="AJ21" s="11">
         <v>0</v>
       </c>
       <c r="AK21" s="11">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="AL21" s="11">
         <v>0</v>
       </c>
       <c r="AM21" s="11">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AN21" s="11">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="AO21" s="11">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="AP21" s="11">
-        <v>614</v>
+        <v>96</v>
       </c>
       <c r="AQ21" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AR21" s="11">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="11">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="AT21" s="11">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AU21" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AV21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="11">
+        <v>45</v>
+      </c>
+      <c r="AY21" s="11">
         <v>69</v>
       </c>
-      <c r="AW21" s="11">
-        <v>24</v>
-      </c>
-      <c r="AX21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="11">
-        <v>-53</v>
-      </c>
       <c r="AZ21" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="11">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="BB21" s="11">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.25">
@@ -3120,53 +3155,53 @@
       <c r="AA22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC22" s="13" t="s">
-        <v>58</v>
+      <c r="AB22" s="13">
+        <v>72</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0</v>
       </c>
       <c r="AD22" s="13">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="13">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AF22" s="13">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="AG22" s="13">
-        <v>433</v>
+        <v>116</v>
       </c>
       <c r="AH22" s="13">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="13">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="AJ22" s="13">
         <v>0</v>
       </c>
       <c r="AK22" s="13">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="13">
         <v>0</v>
       </c>
       <c r="AM22" s="13">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="AN22" s="13">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AO22" s="13">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="AP22" s="13">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="13">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="13">
         <v>0</v>
@@ -3175,31 +3210,31 @@
         <v>0</v>
       </c>
       <c r="AT22" s="13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AU22" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AV22" s="13">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="13">
         <v>0</v>
       </c>
       <c r="AY22" s="13">
-        <v>-151</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="13">
         <v>0</v>
       </c>
       <c r="BA22" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB22" s="13">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
@@ -3278,85 +3313,85 @@
         <v>0</v>
       </c>
       <c r="AB23" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AC23" s="15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD23" s="15">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="15">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="AF23" s="15">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="AG23" s="15">
-        <v>433</v>
+        <v>116</v>
       </c>
       <c r="AH23" s="15">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AI23" s="15">
-        <v>116</v>
+        <v>456</v>
       </c>
       <c r="AJ23" s="15">
-        <v>284</v>
+        <v>579</v>
       </c>
       <c r="AK23" s="15">
-        <v>456</v>
+        <v>75</v>
       </c>
       <c r="AL23" s="15">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="15">
-        <v>75</v>
+        <v>1447</v>
       </c>
       <c r="AN23" s="15">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="AO23" s="15">
-        <v>1447</v>
+        <v>257</v>
       </c>
       <c r="AP23" s="15">
-        <v>833</v>
+        <v>96</v>
       </c>
       <c r="AQ23" s="15">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="AR23" s="15">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="15">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="AT23" s="15">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="AU23" s="15">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="AV23" s="15">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="15">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AY23" s="15">
-        <v>-204</v>
+        <v>69</v>
       </c>
       <c r="AZ23" s="15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="15">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="BB23" s="15">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.25">
@@ -3493,11 +3528,11 @@
       <c r="AA25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC25" s="11" t="s">
-        <v>58</v>
+      <c r="AB25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>0</v>
       </c>
       <c r="AD25" s="11">
         <v>0</v>
@@ -3508,29 +3543,29 @@
       <c r="AF25" s="11">
         <v>0</v>
       </c>
-      <c r="AG25" s="11">
-        <v>0</v>
+      <c r="AG25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH25" s="11">
         <v>0</v>
       </c>
-      <c r="AI25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="11" t="s">
-        <v>58</v>
+      <c r="AI25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>0</v>
       </c>
       <c r="AM25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN25" s="11">
-        <v>0</v>
+      <c r="AN25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO25" s="11" t="s">
         <v>58</v>
@@ -3650,11 +3685,11 @@
       <c r="AA26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC26" s="17" t="s">
-        <v>58</v>
+      <c r="AB26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="17">
+        <v>0</v>
       </c>
       <c r="AD26" s="17">
         <v>0</v>
@@ -3808,85 +3843,85 @@
         <v>0</v>
       </c>
       <c r="AB27" s="15">
-        <v>0</v>
+        <v>4881</v>
       </c>
       <c r="AC27" s="15">
-        <v>0</v>
+        <v>5806</v>
       </c>
       <c r="AD27" s="15">
-        <v>4881</v>
+        <v>5253</v>
       </c>
       <c r="AE27" s="15">
-        <v>5806</v>
+        <v>6091</v>
       </c>
       <c r="AF27" s="15">
-        <v>5253</v>
+        <v>5173</v>
       </c>
       <c r="AG27" s="15">
-        <v>6091</v>
+        <v>6178</v>
       </c>
       <c r="AH27" s="15">
-        <v>5173</v>
+        <v>5625</v>
       </c>
       <c r="AI27" s="15">
-        <v>6178</v>
+        <v>3520</v>
       </c>
       <c r="AJ27" s="15">
-        <v>5625</v>
+        <v>3903</v>
       </c>
       <c r="AK27" s="15">
-        <v>3520</v>
+        <v>5084</v>
       </c>
       <c r="AL27" s="15">
-        <v>3903</v>
+        <v>4973</v>
       </c>
       <c r="AM27" s="15">
-        <v>5084</v>
+        <v>7228</v>
       </c>
       <c r="AN27" s="15">
-        <v>4973</v>
+        <v>4467</v>
       </c>
       <c r="AO27" s="15">
-        <v>7228</v>
+        <v>5411</v>
       </c>
       <c r="AP27" s="15">
-        <v>4467</v>
+        <v>5703</v>
       </c>
       <c r="AQ27" s="15">
-        <v>5411</v>
+        <v>4823</v>
       </c>
       <c r="AR27" s="15">
-        <v>5703</v>
+        <v>5894</v>
       </c>
       <c r="AS27" s="15">
-        <v>4805</v>
+        <v>6672</v>
       </c>
       <c r="AT27" s="15">
-        <v>5894</v>
+        <v>5948</v>
       </c>
       <c r="AU27" s="15">
-        <v>6672</v>
+        <v>6933</v>
       </c>
       <c r="AV27" s="15">
-        <v>5948</v>
+        <v>5947</v>
       </c>
       <c r="AW27" s="15">
-        <v>6933</v>
+        <v>6100</v>
       </c>
       <c r="AX27" s="15">
-        <v>5947</v>
+        <v>6424</v>
       </c>
       <c r="AY27" s="15">
-        <v>7412</v>
+        <v>5278</v>
       </c>
       <c r="AZ27" s="15">
-        <v>6424</v>
+        <v>5777</v>
       </c>
       <c r="BA27" s="15">
-        <v>5278</v>
+        <v>4972</v>
       </c>
       <c r="BB27" s="15">
-        <v>5777</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
@@ -4400,14 +4435,14 @@
       <c r="AA34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC34" s="11" t="s">
-        <v>58</v>
+      <c r="AB34" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>0</v>
       </c>
       <c r="AD34" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="11">
         <v>0</v>
@@ -4415,14 +4450,14 @@
       <c r="AF34" s="11">
         <v>0</v>
       </c>
-      <c r="AG34" s="11">
-        <v>0</v>
+      <c r="AG34" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH34" s="11">
         <v>0</v>
       </c>
-      <c r="AI34" s="11" t="s">
-        <v>58</v>
+      <c r="AI34" s="11">
+        <v>0</v>
       </c>
       <c r="AJ34" s="11">
         <v>0</v>
@@ -4434,25 +4469,25 @@
         <v>0</v>
       </c>
       <c r="AM34" s="11">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AN34" s="11">
         <v>0</v>
       </c>
       <c r="AO34" s="11">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AQ34" s="11">
         <v>0</v>
       </c>
       <c r="AR34" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="11">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="11">
         <v>0</v>
@@ -4472,14 +4507,14 @@
       <c r="AY34" s="11">
         <v>0</v>
       </c>
-      <c r="AZ34" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="11" t="s">
-        <v>58</v>
+      <c r="AZ34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB34" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -4559,86 +4594,86 @@
       <c r="AA35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC35" s="13" t="s">
-        <v>58</v>
+      <c r="AB35" s="13">
+        <v>49</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>68</v>
       </c>
       <c r="AD35" s="13">
-        <v>49</v>
+        <v>405</v>
       </c>
       <c r="AE35" s="13">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="AF35" s="13">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="13">
-        <v>378</v>
+        <v>509</v>
       </c>
       <c r="AH35" s="13">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AI35" s="13">
-        <v>509</v>
+        <v>191</v>
       </c>
       <c r="AJ35" s="13">
-        <v>351</v>
+        <v>1142</v>
       </c>
       <c r="AK35" s="13">
-        <v>191</v>
+        <v>657</v>
       </c>
       <c r="AL35" s="13">
-        <v>1142</v>
+        <v>682</v>
       </c>
       <c r="AM35" s="13">
-        <v>657</v>
+        <v>957</v>
       </c>
       <c r="AN35" s="13">
-        <v>682</v>
+        <v>906</v>
       </c>
       <c r="AO35" s="13">
-        <v>957</v>
+        <v>750</v>
       </c>
       <c r="AP35" s="13">
-        <v>906</v>
+        <v>1547</v>
       </c>
       <c r="AQ35" s="13">
-        <v>750</v>
+        <v>2018</v>
       </c>
       <c r="AR35" s="13">
-        <v>1547</v>
+        <v>3857</v>
       </c>
       <c r="AS35" s="13">
-        <v>2018</v>
+        <v>3847</v>
       </c>
       <c r="AT35" s="13">
-        <v>3857</v>
+        <v>1263</v>
       </c>
       <c r="AU35" s="13">
-        <v>3847</v>
+        <v>3017</v>
       </c>
       <c r="AV35" s="13">
-        <v>1263</v>
+        <v>2873</v>
       </c>
       <c r="AW35" s="13">
-        <v>3017</v>
+        <v>2434</v>
       </c>
       <c r="AX35" s="13">
-        <v>2873</v>
+        <v>2188</v>
       </c>
       <c r="AY35" s="13">
-        <v>2434</v>
+        <v>1722</v>
       </c>
       <c r="AZ35" s="13">
-        <v>2188</v>
+        <v>1192</v>
       </c>
       <c r="BA35" s="13">
-        <v>1722</v>
+        <v>2003</v>
       </c>
       <c r="BB35" s="13">
-        <v>1192</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
@@ -4718,86 +4753,86 @@
       <c r="AA36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC36" s="11" t="s">
-        <v>58</v>
+      <c r="AB36" s="11">
+        <v>1485</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>1872</v>
       </c>
       <c r="AD36" s="11">
-        <v>1485</v>
+        <v>1755</v>
       </c>
       <c r="AE36" s="11">
-        <v>1872</v>
+        <v>1851</v>
       </c>
       <c r="AF36" s="11">
-        <v>1755</v>
+        <v>1563</v>
       </c>
       <c r="AG36" s="11">
-        <v>1851</v>
+        <v>2010</v>
       </c>
       <c r="AH36" s="11">
-        <v>1563</v>
+        <v>656</v>
       </c>
       <c r="AI36" s="11">
-        <v>2010</v>
+        <v>1027</v>
       </c>
       <c r="AJ36" s="11">
-        <v>656</v>
+        <v>1410</v>
       </c>
       <c r="AK36" s="11">
-        <v>1027</v>
+        <v>2493</v>
       </c>
       <c r="AL36" s="11">
-        <v>1410</v>
+        <v>1856</v>
       </c>
       <c r="AM36" s="11">
-        <v>2493</v>
+        <v>2402</v>
       </c>
       <c r="AN36" s="11">
-        <v>1856</v>
+        <v>1153</v>
       </c>
       <c r="AO36" s="11">
-        <v>2402</v>
+        <v>2238</v>
       </c>
       <c r="AP36" s="11">
-        <v>1153</v>
+        <v>1960</v>
       </c>
       <c r="AQ36" s="11">
-        <v>2238</v>
+        <v>1808</v>
       </c>
       <c r="AR36" s="11">
-        <v>1960</v>
+        <v>2291</v>
       </c>
       <c r="AS36" s="11">
-        <v>1808</v>
+        <v>1898</v>
       </c>
       <c r="AT36" s="11">
-        <v>2291</v>
+        <v>1865</v>
       </c>
       <c r="AU36" s="11">
-        <v>1898</v>
+        <v>2459</v>
       </c>
       <c r="AV36" s="11">
-        <v>1865</v>
+        <v>2379</v>
       </c>
       <c r="AW36" s="11">
-        <v>2459</v>
+        <v>1933</v>
       </c>
       <c r="AX36" s="11">
-        <v>2379</v>
+        <v>1596</v>
       </c>
       <c r="AY36" s="11">
-        <v>1933</v>
+        <v>1702</v>
       </c>
       <c r="AZ36" s="11">
-        <v>1596</v>
+        <v>1666</v>
       </c>
       <c r="BA36" s="11">
-        <v>1702</v>
+        <v>1623</v>
       </c>
       <c r="BB36" s="11">
-        <v>1666</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
@@ -4877,86 +4912,86 @@
       <c r="AA37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC37" s="13" t="s">
-        <v>58</v>
+      <c r="AB37" s="13">
+        <v>3311</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>3611</v>
       </c>
       <c r="AD37" s="13">
-        <v>3311</v>
+        <v>2884</v>
       </c>
       <c r="AE37" s="13">
-        <v>3611</v>
+        <v>2681</v>
       </c>
       <c r="AF37" s="13">
-        <v>2884</v>
+        <v>1483</v>
       </c>
       <c r="AG37" s="13">
-        <v>2681</v>
+        <v>3188</v>
       </c>
       <c r="AH37" s="13">
-        <v>1483</v>
+        <v>2708</v>
       </c>
       <c r="AI37" s="13">
-        <v>3188</v>
+        <v>2559</v>
       </c>
       <c r="AJ37" s="13">
-        <v>2708</v>
+        <v>1936</v>
       </c>
       <c r="AK37" s="13">
-        <v>2559</v>
+        <v>2170</v>
       </c>
       <c r="AL37" s="13">
-        <v>1936</v>
+        <v>2810</v>
       </c>
       <c r="AM37" s="13">
-        <v>2170</v>
+        <v>2300</v>
       </c>
       <c r="AN37" s="13">
-        <v>2810</v>
+        <v>1626</v>
       </c>
       <c r="AO37" s="13">
-        <v>2300</v>
+        <v>1860</v>
       </c>
       <c r="AP37" s="13">
-        <v>1626</v>
+        <v>1086</v>
       </c>
       <c r="AQ37" s="13">
-        <v>1860</v>
+        <v>66</v>
       </c>
       <c r="AR37" s="13">
-        <v>1086</v>
+        <v>16</v>
       </c>
       <c r="AS37" s="13">
-        <v>66</v>
+        <v>648</v>
       </c>
       <c r="AT37" s="13">
-        <v>16</v>
+        <v>1548</v>
       </c>
       <c r="AU37" s="13">
-        <v>648</v>
+        <v>482</v>
       </c>
       <c r="AV37" s="13">
-        <v>1548</v>
+        <v>468</v>
       </c>
       <c r="AW37" s="13">
-        <v>482</v>
+        <v>310</v>
       </c>
       <c r="AX37" s="13">
-        <v>468</v>
+        <v>25</v>
       </c>
       <c r="AY37" s="13">
-        <v>310</v>
+        <v>716</v>
       </c>
       <c r="AZ37" s="13">
-        <v>25</v>
+        <v>2542</v>
       </c>
       <c r="BA37" s="13">
-        <v>716</v>
+        <v>1205</v>
       </c>
       <c r="BB37" s="13">
-        <v>2542</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.25">
@@ -5045,77 +5080,77 @@
       <c r="AD38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF38" s="11" t="s">
-        <v>58</v>
+      <c r="AE38" s="11">
+        <v>540</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>1311</v>
       </c>
       <c r="AG38" s="11">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="AH38" s="11">
-        <v>1311</v>
+        <v>22</v>
       </c>
       <c r="AI38" s="11">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="11">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="AK38" s="11">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AL38" s="11">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="AM38" s="11">
-        <v>69</v>
+        <v>816</v>
       </c>
       <c r="AN38" s="11">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="AO38" s="11">
-        <v>816</v>
+        <v>352</v>
       </c>
       <c r="AP38" s="11">
-        <v>397</v>
+        <v>1074</v>
       </c>
       <c r="AQ38" s="11">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="AR38" s="11">
-        <v>1074</v>
+        <v>29</v>
       </c>
       <c r="AS38" s="11">
-        <v>410</v>
+        <v>226</v>
       </c>
       <c r="AT38" s="11">
-        <v>29</v>
+        <v>996</v>
       </c>
       <c r="AU38" s="11">
-        <v>226</v>
+        <v>760</v>
       </c>
       <c r="AV38" s="11">
-        <v>996</v>
+        <v>395</v>
       </c>
       <c r="AW38" s="11">
-        <v>760</v>
+        <v>1564</v>
       </c>
       <c r="AX38" s="11">
-        <v>395</v>
+        <v>1350</v>
       </c>
       <c r="AY38" s="11">
-        <v>1564</v>
+        <v>1308</v>
       </c>
       <c r="AZ38" s="11">
-        <v>1350</v>
+        <v>172</v>
       </c>
       <c r="BA38" s="11">
-        <v>1308</v>
+        <v>180</v>
       </c>
       <c r="BB38" s="11">
-        <v>172</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
@@ -5195,14 +5230,14 @@
       <c r="AA39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC39" s="13" t="s">
-        <v>58</v>
+      <c r="AB39" s="13">
+        <v>200</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>0</v>
       </c>
       <c r="AD39" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="13">
         <v>0</v>
@@ -5210,14 +5245,14 @@
       <c r="AF39" s="13">
         <v>0</v>
       </c>
-      <c r="AG39" s="13">
-        <v>0</v>
+      <c r="AG39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH39" s="13">
         <v>0</v>
       </c>
-      <c r="AI39" s="13" t="s">
-        <v>58</v>
+      <c r="AI39" s="13">
+        <v>0</v>
       </c>
       <c r="AJ39" s="13">
         <v>0</v>
@@ -5228,14 +5263,14 @@
       <c r="AL39" s="13">
         <v>0</v>
       </c>
-      <c r="AM39" s="13">
-        <v>0</v>
+      <c r="AM39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN39" s="13">
         <v>0</v>
       </c>
-      <c r="AO39" s="13" t="s">
-        <v>58</v>
+      <c r="AO39" s="13">
+        <v>0</v>
       </c>
       <c r="AP39" s="13">
         <v>0</v>
@@ -5267,11 +5302,11 @@
       <c r="AY39" s="13">
         <v>0</v>
       </c>
-      <c r="AZ39" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="13">
-        <v>0</v>
+      <c r="AZ39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB39" s="13" t="s">
         <v>58</v>
@@ -5353,85 +5388,85 @@
         <v>0</v>
       </c>
       <c r="AB40" s="15">
-        <v>0</v>
+        <v>5050</v>
       </c>
       <c r="AC40" s="15">
-        <v>0</v>
+        <v>5551</v>
       </c>
       <c r="AD40" s="15">
-        <v>5050</v>
+        <v>5044</v>
       </c>
       <c r="AE40" s="15">
-        <v>5551</v>
+        <v>5450</v>
       </c>
       <c r="AF40" s="15">
-        <v>5044</v>
+        <v>4357</v>
       </c>
       <c r="AG40" s="15">
-        <v>5450</v>
+        <v>6264</v>
       </c>
       <c r="AH40" s="15">
-        <v>4357</v>
+        <v>3737</v>
       </c>
       <c r="AI40" s="15">
-        <v>6264</v>
+        <v>3777</v>
       </c>
       <c r="AJ40" s="15">
-        <v>3737</v>
+        <v>4823</v>
       </c>
       <c r="AK40" s="15">
-        <v>3777</v>
+        <v>5389</v>
       </c>
       <c r="AL40" s="15">
-        <v>4823</v>
+        <v>5651</v>
       </c>
       <c r="AM40" s="15">
-        <v>5389</v>
+        <v>6531</v>
       </c>
       <c r="AN40" s="15">
-        <v>5651</v>
+        <v>4082</v>
       </c>
       <c r="AO40" s="15">
-        <v>6531</v>
+        <v>5200</v>
       </c>
       <c r="AP40" s="15">
-        <v>4082</v>
+        <v>5685</v>
       </c>
       <c r="AQ40" s="15">
-        <v>5200</v>
+        <v>4302</v>
       </c>
       <c r="AR40" s="15">
-        <v>5685</v>
+        <v>6193</v>
       </c>
       <c r="AS40" s="15">
-        <v>4284</v>
+        <v>6619</v>
       </c>
       <c r="AT40" s="15">
-        <v>6193</v>
+        <v>5672</v>
       </c>
       <c r="AU40" s="15">
-        <v>6619</v>
+        <v>6718</v>
       </c>
       <c r="AV40" s="15">
-        <v>5672</v>
+        <v>6115</v>
       </c>
       <c r="AW40" s="15">
-        <v>6718</v>
+        <v>6241</v>
       </c>
       <c r="AX40" s="15">
-        <v>6115</v>
+        <v>5159</v>
       </c>
       <c r="AY40" s="15">
-        <v>6241</v>
+        <v>5448</v>
       </c>
       <c r="AZ40" s="15">
-        <v>5159</v>
+        <v>5572</v>
       </c>
       <c r="BA40" s="15">
-        <v>5448</v>
+        <v>5011</v>
       </c>
       <c r="BB40" s="15">
-        <v>5572</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
@@ -5568,11 +5603,11 @@
       <c r="AA42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC42" s="11" t="s">
-        <v>58</v>
+      <c r="AB42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>0</v>
       </c>
       <c r="AD42" s="11">
         <v>0</v>
@@ -5583,14 +5618,14 @@
       <c r="AF42" s="11">
         <v>0</v>
       </c>
-      <c r="AG42" s="11">
-        <v>0</v>
+      <c r="AG42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH42" s="11">
         <v>0</v>
       </c>
-      <c r="AI42" s="11" t="s">
-        <v>58</v>
+      <c r="AI42" s="11">
+        <v>0</v>
       </c>
       <c r="AJ42" s="11">
         <v>0</v>
@@ -5601,11 +5636,11 @@
       <c r="AL42" s="11">
         <v>0</v>
       </c>
-      <c r="AM42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="11">
-        <v>0</v>
+      <c r="AM42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO42" s="11" t="s">
         <v>58</v>
@@ -5727,53 +5762,53 @@
       <c r="AA43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC43" s="13" t="s">
-        <v>58</v>
+      <c r="AB43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="13">
+        <v>24</v>
       </c>
       <c r="AD43" s="13">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="AE43" s="13">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="AF43" s="13">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="13">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="AH43" s="13">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="AI43" s="13">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AJ43" s="13">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="AK43" s="13">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="AL43" s="13">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="13">
-        <v>47</v>
-      </c>
-      <c r="AN43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="13">
         <v>48</v>
       </c>
-      <c r="AP43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ43" s="13" t="s">
-        <v>58</v>
+      <c r="AN43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="13">
+        <v>0</v>
       </c>
       <c r="AR43" s="13">
         <v>0</v>
@@ -5799,11 +5834,11 @@
       <c r="AY43" s="13">
         <v>0</v>
       </c>
-      <c r="AZ43" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA43" s="13">
-        <v>0</v>
+      <c r="AZ43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB43" s="13" t="s">
         <v>58</v>
@@ -5886,11 +5921,11 @@
       <c r="AA44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC44" s="11" t="s">
-        <v>58</v>
+      <c r="AB44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="11">
+        <v>0</v>
       </c>
       <c r="AD44" s="11">
         <v>0</v>
@@ -5901,71 +5936,71 @@
       <c r="AF44" s="11">
         <v>0</v>
       </c>
-      <c r="AG44" s="11">
-        <v>0</v>
+      <c r="AG44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="11" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="AI44" s="11">
+        <v>91</v>
       </c>
       <c r="AJ44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="11">
         <v>24</v>
       </c>
-      <c r="AK44" s="11">
-        <v>91</v>
-      </c>
       <c r="AL44" s="11">
         <v>0</v>
       </c>
       <c r="AM44" s="11">
+        <v>10</v>
+      </c>
+      <c r="AN44" s="11">
+        <v>561</v>
+      </c>
+      <c r="AO44" s="11">
+        <v>121</v>
+      </c>
+      <c r="AP44" s="11">
+        <v>96</v>
+      </c>
+      <c r="AQ44" s="11">
+        <v>122</v>
+      </c>
+      <c r="AR44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="11">
+        <v>48</v>
+      </c>
+      <c r="AT44" s="11">
+        <v>69</v>
+      </c>
+      <c r="AU44" s="11">
         <v>24</v>
       </c>
-      <c r="AN44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="11">
-        <v>10</v>
-      </c>
-      <c r="AP44" s="11">
-        <v>561</v>
-      </c>
-      <c r="AQ44" s="11">
-        <v>121</v>
-      </c>
-      <c r="AR44" s="11">
-        <v>96</v>
-      </c>
-      <c r="AS44" s="11">
-        <v>122</v>
-      </c>
-      <c r="AT44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="11">
-        <v>48</v>
-      </c>
       <c r="AV44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="11">
+        <v>45</v>
+      </c>
+      <c r="AY44" s="11">
         <v>69</v>
       </c>
-      <c r="AW44" s="11">
-        <v>24</v>
-      </c>
-      <c r="AX44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="11">
-        <v>0</v>
-      </c>
       <c r="AZ44" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="11">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="BB44" s="11">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
@@ -6045,86 +6080,86 @@
       <c r="AA45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC45" s="13" t="s">
-        <v>58</v>
+      <c r="AB45" s="13">
+        <v>72</v>
+      </c>
+      <c r="AC45" s="13">
+        <v>0</v>
       </c>
       <c r="AD45" s="13">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="13">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AF45" s="13">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="AG45" s="13">
-        <v>433</v>
+        <v>116</v>
       </c>
       <c r="AH45" s="13">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="AI45" s="13">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="AJ45" s="13">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="AK45" s="13">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="AL45" s="13">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AM45" s="13">
+        <v>21</v>
+      </c>
+      <c r="AN45" s="13">
+        <v>68</v>
+      </c>
+      <c r="AO45" s="13">
+        <v>136</v>
+      </c>
+      <c r="AP45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="13">
+        <v>94</v>
+      </c>
+      <c r="AU45" s="13">
+        <v>47</v>
+      </c>
+      <c r="AV45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA45" s="13">
         <v>23</v>
       </c>
-      <c r="AN45" s="13">
-        <v>67</v>
-      </c>
-      <c r="AO45" s="13">
-        <v>21</v>
-      </c>
-      <c r="AP45" s="13">
-        <v>68</v>
-      </c>
-      <c r="AQ45" s="13">
-        <v>136</v>
-      </c>
-      <c r="AR45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV45" s="13">
-        <v>94</v>
-      </c>
-      <c r="AW45" s="13">
-        <v>47</v>
-      </c>
-      <c r="AX45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA45" s="13">
-        <v>0</v>
-      </c>
       <c r="BB45" s="13">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.25">
@@ -6203,85 +6238,85 @@
         <v>0</v>
       </c>
       <c r="AB46" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AC46" s="15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD46" s="15">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="AE46" s="15">
-        <v>24</v>
+        <v>625</v>
       </c>
       <c r="AF46" s="15">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="AG46" s="15">
-        <v>625</v>
+        <v>381</v>
       </c>
       <c r="AH46" s="15">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AI46" s="15">
-        <v>381</v>
+        <v>456</v>
       </c>
       <c r="AJ46" s="15">
-        <v>310</v>
+        <v>425</v>
       </c>
       <c r="AK46" s="15">
-        <v>456</v>
+        <v>94</v>
       </c>
       <c r="AL46" s="15">
-        <v>425</v>
+        <v>67</v>
       </c>
       <c r="AM46" s="15">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AN46" s="15">
-        <v>67</v>
+        <v>629</v>
       </c>
       <c r="AO46" s="15">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AP46" s="15">
-        <v>629</v>
+        <v>96</v>
       </c>
       <c r="AQ46" s="15">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="AR46" s="15">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="15">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="AT46" s="15">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="AU46" s="15">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="AV46" s="15">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="15">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AY46" s="15">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AZ46" s="15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="15">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="BB46" s="15">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
@@ -6418,11 +6453,11 @@
       <c r="AA48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC48" s="11" t="s">
-        <v>58</v>
+      <c r="AB48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="11">
+        <v>0</v>
       </c>
       <c r="AD48" s="11">
         <v>0</v>
@@ -6433,29 +6468,29 @@
       <c r="AF48" s="11">
         <v>0</v>
       </c>
-      <c r="AG48" s="11">
-        <v>0</v>
+      <c r="AG48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH48" s="11">
         <v>0</v>
       </c>
-      <c r="AI48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="11" t="s">
-        <v>58</v>
+      <c r="AI48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL48" s="11">
+        <v>0</v>
       </c>
       <c r="AM48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN48" s="11">
-        <v>0</v>
+      <c r="AN48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO48" s="11" t="s">
         <v>58</v>
@@ -6575,11 +6610,11 @@
       <c r="AA49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC49" s="17" t="s">
-        <v>58</v>
+      <c r="AB49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="17">
+        <v>0</v>
       </c>
       <c r="AD49" s="17">
         <v>0</v>
@@ -6800,35 +6835,35 @@
       <c r="AD51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG51" s="11">
+      <c r="AE51" s="11">
         <v>-4</v>
       </c>
+      <c r="AF51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH51" s="11">
         <v>0</v>
       </c>
-      <c r="AI51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="11" t="s">
-        <v>58</v>
+      <c r="AI51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL51" s="11">
+        <v>0</v>
       </c>
       <c r="AM51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN51" s="11">
-        <v>0</v>
+      <c r="AN51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO51" s="11" t="s">
         <v>58</v>
@@ -6836,26 +6871,26 @@
       <c r="AP51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
+      <c r="AQ51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="11">
+        <v>0</v>
       </c>
       <c r="AS51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT51" s="11">
-        <v>0</v>
+        <v>-44</v>
+      </c>
+      <c r="AT51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU51" s="11">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW51" s="11">
-        <v>0</v>
+      <c r="AW51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX51" s="11" t="s">
         <v>58</v>
@@ -6866,8 +6901,8 @@
       <c r="AZ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA51" s="11">
-        <v>0</v>
+      <c r="BA51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB51" s="11" t="s">
         <v>58</v>
@@ -6977,17 +7012,17 @@
       <c r="AJ52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM52" s="13">
+      <c r="AK52" s="13">
         <v>-44</v>
       </c>
-      <c r="AN52" s="13">
-        <v>0</v>
+      <c r="AL52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO52" s="13" t="s">
         <v>58</v>
@@ -7020,13 +7055,13 @@
         <v>58</v>
       </c>
       <c r="AY52" s="13">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="AZ52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA52" s="13">
-        <v>-36</v>
+      <c r="BA52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB52" s="13" t="s">
         <v>58</v>
@@ -7142,14 +7177,14 @@
       <c r="AL53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM53" s="11" t="s">
-        <v>58</v>
+      <c r="AM53" s="11">
+        <v>0</v>
       </c>
       <c r="AN53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO53" s="11">
-        <v>0</v>
+      <c r="AO53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP53" s="11" t="s">
         <v>58</v>
@@ -7166,14 +7201,14 @@
       <c r="AT53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU53" s="11" t="s">
-        <v>58</v>
+      <c r="AU53" s="11">
+        <v>0</v>
       </c>
       <c r="AV53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW53" s="11">
-        <v>0</v>
+      <c r="AW53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX53" s="11" t="s">
         <v>58</v>
@@ -7337,14 +7372,14 @@
       <c r="AX54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY54" s="13" t="s">
-        <v>58</v>
+      <c r="AY54" s="13">
+        <v>-9</v>
       </c>
       <c r="AZ54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA54" s="13">
-        <v>-9</v>
+      <c r="BA54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB54" s="13" t="s">
         <v>58</v>
@@ -7425,23 +7460,23 @@
       <c r="AA55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC55" s="15" t="s">
-        <v>58</v>
+      <c r="AB55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="15">
+        <v>0</v>
       </c>
       <c r="AD55" s="15">
         <v>0</v>
       </c>
       <c r="AE55" s="15">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AF55" s="15">
         <v>0</v>
       </c>
       <c r="AG55" s="15">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="15">
         <v>0</v>
@@ -7453,37 +7488,37 @@
         <v>0</v>
       </c>
       <c r="AK55" s="15">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="AL55" s="15">
         <v>0</v>
       </c>
       <c r="AM55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="15">
         <v>-44</v>
       </c>
-      <c r="AN55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AS55" s="15">
-        <v>0</v>
-      </c>
       <c r="AT55" s="15">
         <v>0</v>
       </c>
       <c r="AU55" s="15">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="15">
         <v>0</v>
@@ -7495,13 +7530,13 @@
         <v>0</v>
       </c>
       <c r="AY55" s="15">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="AZ55" s="15">
         <v>0</v>
       </c>
       <c r="BA55" s="15">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="15">
         <v>0</v>
@@ -7583,85 +7618,85 @@
         <v>0</v>
       </c>
       <c r="AB56" s="17">
-        <v>0</v>
+        <v>5122</v>
       </c>
       <c r="AC56" s="17">
-        <v>0</v>
+        <v>5575</v>
       </c>
       <c r="AD56" s="17">
-        <v>5122</v>
+        <v>5427</v>
       </c>
       <c r="AE56" s="17">
-        <v>5575</v>
+        <v>6071</v>
       </c>
       <c r="AF56" s="17">
-        <v>5427</v>
+        <v>4651</v>
       </c>
       <c r="AG56" s="17">
-        <v>6071</v>
+        <v>6645</v>
       </c>
       <c r="AH56" s="17">
-        <v>4651</v>
+        <v>4047</v>
       </c>
       <c r="AI56" s="17">
-        <v>6645</v>
+        <v>4233</v>
       </c>
       <c r="AJ56" s="17">
-        <v>4047</v>
+        <v>5248</v>
       </c>
       <c r="AK56" s="17">
-        <v>4233</v>
+        <v>5439</v>
       </c>
       <c r="AL56" s="17">
-        <v>5248</v>
+        <v>5718</v>
       </c>
       <c r="AM56" s="17">
-        <v>5439</v>
+        <v>6610</v>
       </c>
       <c r="AN56" s="17">
-        <v>5718</v>
+        <v>4711</v>
       </c>
       <c r="AO56" s="17">
-        <v>6610</v>
+        <v>5457</v>
       </c>
       <c r="AP56" s="17">
-        <v>4711</v>
+        <v>5781</v>
       </c>
       <c r="AQ56" s="17">
-        <v>5457</v>
+        <v>4424</v>
       </c>
       <c r="AR56" s="17">
-        <v>5781</v>
+        <v>6193</v>
       </c>
       <c r="AS56" s="17">
-        <v>4406</v>
+        <v>6623</v>
       </c>
       <c r="AT56" s="17">
-        <v>6193</v>
+        <v>5835</v>
       </c>
       <c r="AU56" s="17">
-        <v>6623</v>
+        <v>6789</v>
       </c>
       <c r="AV56" s="17">
-        <v>5835</v>
+        <v>6115</v>
       </c>
       <c r="AW56" s="17">
-        <v>6789</v>
+        <v>6241</v>
       </c>
       <c r="AX56" s="17">
-        <v>6115</v>
+        <v>5204</v>
       </c>
       <c r="AY56" s="17">
-        <v>6241</v>
+        <v>5472</v>
       </c>
       <c r="AZ56" s="17">
-        <v>5204</v>
+        <v>5572</v>
       </c>
       <c r="BA56" s="17">
-        <v>5472</v>
+        <v>5148</v>
       </c>
       <c r="BB56" s="17">
-        <v>5572</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.25">
@@ -8175,14 +8210,14 @@
       <c r="AA63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC63" s="11" t="s">
-        <v>58</v>
+      <c r="AB63" s="11">
+        <v>561</v>
+      </c>
+      <c r="AC63" s="11">
+        <v>0</v>
       </c>
       <c r="AD63" s="11">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="11">
         <v>0</v>
@@ -8209,25 +8244,25 @@
         <v>0</v>
       </c>
       <c r="AM63" s="11">
-        <v>0</v>
+        <v>199757</v>
       </c>
       <c r="AN63" s="11">
         <v>0</v>
       </c>
       <c r="AO63" s="11">
-        <v>199757</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="11">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="AQ63" s="11">
         <v>0</v>
       </c>
       <c r="AR63" s="11">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="11">
-        <v>-27000</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="11">
         <v>0</v>
@@ -8247,14 +8282,14 @@
       <c r="AY63" s="11">
         <v>0</v>
       </c>
-      <c r="AZ63" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA63" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB63" s="11" t="s">
-        <v>58</v>
+      <c r="AZ63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB63" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.25">
@@ -8334,86 +8369,86 @@
       <c r="AA64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC64" s="13" t="s">
-        <v>58</v>
+      <c r="AB64" s="13">
+        <v>5121</v>
+      </c>
+      <c r="AC64" s="13">
+        <v>7286</v>
       </c>
       <c r="AD64" s="13">
-        <v>5121</v>
+        <v>45071</v>
       </c>
       <c r="AE64" s="13">
-        <v>7286</v>
+        <v>39178</v>
       </c>
       <c r="AF64" s="13">
-        <v>45071</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="13">
-        <v>39178</v>
+        <v>60935</v>
       </c>
       <c r="AH64" s="13">
-        <v>0</v>
+        <v>50834</v>
       </c>
       <c r="AI64" s="13">
-        <v>60935</v>
+        <v>28284</v>
       </c>
       <c r="AJ64" s="13">
-        <v>50834</v>
+        <v>158244</v>
       </c>
       <c r="AK64" s="13">
-        <v>28284</v>
+        <v>96798</v>
       </c>
       <c r="AL64" s="13">
-        <v>158244</v>
+        <v>98682</v>
       </c>
       <c r="AM64" s="13">
-        <v>96798</v>
+        <v>120186</v>
       </c>
       <c r="AN64" s="13">
-        <v>98682</v>
+        <v>125110</v>
       </c>
       <c r="AO64" s="13">
-        <v>120186</v>
+        <v>132518</v>
       </c>
       <c r="AP64" s="13">
-        <v>125110</v>
+        <v>287900</v>
       </c>
       <c r="AQ64" s="13">
-        <v>132518</v>
+        <v>389698</v>
       </c>
       <c r="AR64" s="13">
-        <v>287900</v>
+        <v>781590</v>
       </c>
       <c r="AS64" s="13">
-        <v>389698</v>
+        <v>690849</v>
       </c>
       <c r="AT64" s="13">
-        <v>781590</v>
+        <v>274518</v>
       </c>
       <c r="AU64" s="13">
-        <v>690849</v>
+        <v>520310</v>
       </c>
       <c r="AV64" s="13">
-        <v>274518</v>
+        <v>559973</v>
       </c>
       <c r="AW64" s="13">
-        <v>520310</v>
+        <v>526489</v>
       </c>
       <c r="AX64" s="13">
-        <v>559973</v>
+        <v>477996</v>
       </c>
       <c r="AY64" s="13">
-        <v>526489</v>
+        <v>1255210</v>
       </c>
       <c r="AZ64" s="13">
-        <v>477996</v>
+        <v>243870</v>
       </c>
       <c r="BA64" s="13">
-        <v>332483</v>
+        <v>395828</v>
       </c>
       <c r="BB64" s="13">
-        <v>243870</v>
+        <v>498284</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.25">
@@ -8493,86 +8528,86 @@
       <c r="AA65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC65" s="11" t="s">
-        <v>58</v>
+      <c r="AB65" s="11">
+        <v>163551</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>213713</v>
       </c>
       <c r="AD65" s="11">
-        <v>163551</v>
+        <v>212679</v>
       </c>
       <c r="AE65" s="11">
-        <v>213713</v>
+        <v>232674</v>
       </c>
       <c r="AF65" s="11">
-        <v>212679</v>
+        <v>204790</v>
       </c>
       <c r="AG65" s="11">
-        <v>232674</v>
+        <v>307721</v>
       </c>
       <c r="AH65" s="11">
-        <v>204790</v>
+        <v>101747</v>
       </c>
       <c r="AI65" s="11">
-        <v>307721</v>
+        <v>139253</v>
       </c>
       <c r="AJ65" s="11">
-        <v>101747</v>
+        <v>170126</v>
       </c>
       <c r="AK65" s="11">
-        <v>139253</v>
+        <v>292392</v>
       </c>
       <c r="AL65" s="11">
-        <v>170126</v>
+        <v>214004</v>
       </c>
       <c r="AM65" s="11">
-        <v>292392</v>
+        <v>294092</v>
       </c>
       <c r="AN65" s="11">
-        <v>214004</v>
+        <v>152305</v>
       </c>
       <c r="AO65" s="11">
-        <v>294092</v>
+        <v>301013</v>
       </c>
       <c r="AP65" s="11">
-        <v>152305</v>
+        <v>284380</v>
       </c>
       <c r="AQ65" s="11">
-        <v>301013</v>
+        <v>276296</v>
       </c>
       <c r="AR65" s="11">
-        <v>284380</v>
+        <v>368233</v>
       </c>
       <c r="AS65" s="11">
-        <v>276296</v>
+        <v>309633</v>
       </c>
       <c r="AT65" s="11">
-        <v>368233</v>
+        <v>312750</v>
       </c>
       <c r="AU65" s="11">
-        <v>309633</v>
+        <v>417139</v>
       </c>
       <c r="AV65" s="11">
-        <v>312750</v>
+        <v>412729</v>
       </c>
       <c r="AW65" s="11">
-        <v>417139</v>
+        <v>333044</v>
       </c>
       <c r="AX65" s="11">
-        <v>412729</v>
+        <v>270892</v>
       </c>
       <c r="AY65" s="11">
-        <v>333044</v>
+        <v>265473</v>
       </c>
       <c r="AZ65" s="11">
-        <v>270892</v>
+        <v>264431</v>
       </c>
       <c r="BA65" s="11">
-        <v>265474</v>
+        <v>258689</v>
       </c>
       <c r="BB65" s="11">
-        <v>264431</v>
+        <v>301276</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.25">
@@ -8652,86 +8687,86 @@
       <c r="AA66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC66" s="13" t="s">
-        <v>58</v>
+      <c r="AB66" s="13">
+        <v>520677</v>
+      </c>
+      <c r="AC66" s="13">
+        <v>583823</v>
       </c>
       <c r="AD66" s="13">
-        <v>520677</v>
+        <v>459613</v>
       </c>
       <c r="AE66" s="13">
-        <v>583823</v>
+        <v>410172</v>
       </c>
       <c r="AF66" s="13">
-        <v>459613</v>
+        <v>288590</v>
       </c>
       <c r="AG66" s="13">
-        <v>410172</v>
+        <v>631482</v>
       </c>
       <c r="AH66" s="13">
-        <v>288590</v>
+        <v>503476</v>
       </c>
       <c r="AI66" s="13">
-        <v>631482</v>
+        <v>492912</v>
       </c>
       <c r="AJ66" s="13">
-        <v>503476</v>
+        <v>358036</v>
       </c>
       <c r="AK66" s="13">
-        <v>492912</v>
+        <v>475603</v>
       </c>
       <c r="AL66" s="13">
-        <v>358036</v>
+        <v>533259</v>
       </c>
       <c r="AM66" s="13">
-        <v>475603</v>
+        <v>518885</v>
       </c>
       <c r="AN66" s="13">
-        <v>533259</v>
+        <v>387524</v>
       </c>
       <c r="AO66" s="13">
-        <v>518885</v>
+        <v>447439</v>
       </c>
       <c r="AP66" s="13">
-        <v>387524</v>
+        <v>259769</v>
       </c>
       <c r="AQ66" s="13">
-        <v>447439</v>
+        <v>15362</v>
       </c>
       <c r="AR66" s="13">
-        <v>259769</v>
+        <v>3800</v>
       </c>
       <c r="AS66" s="13">
-        <v>15362</v>
+        <v>133557</v>
       </c>
       <c r="AT66" s="13">
-        <v>3800</v>
+        <v>402063</v>
       </c>
       <c r="AU66" s="13">
-        <v>133557</v>
+        <v>137555</v>
       </c>
       <c r="AV66" s="13">
-        <v>402063</v>
+        <v>105154</v>
       </c>
       <c r="AW66" s="13">
-        <v>137555</v>
+        <v>74107</v>
       </c>
       <c r="AX66" s="13">
-        <v>105154</v>
+        <v>4880</v>
       </c>
       <c r="AY66" s="13">
-        <v>74107</v>
+        <v>189712</v>
       </c>
       <c r="AZ66" s="13">
-        <v>4880</v>
+        <v>627112</v>
       </c>
       <c r="BA66" s="13">
-        <v>189712</v>
+        <v>313237</v>
       </c>
       <c r="BB66" s="13">
-        <v>627112</v>
+        <v>295918</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.25">
@@ -8820,77 +8855,77 @@
       <c r="AD67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF67" s="11" t="s">
-        <v>58</v>
+      <c r="AE67" s="11">
+        <v>82164</v>
+      </c>
+      <c r="AF67" s="11">
+        <v>217132</v>
       </c>
       <c r="AG67" s="11">
-        <v>82164</v>
+        <v>106240</v>
       </c>
       <c r="AH67" s="11">
-        <v>217132</v>
+        <v>3985</v>
       </c>
       <c r="AI67" s="11">
-        <v>106240</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="11">
-        <v>3985</v>
+        <v>62885</v>
       </c>
       <c r="AK67" s="11">
-        <v>0</v>
+        <v>12846</v>
       </c>
       <c r="AL67" s="11">
-        <v>62885</v>
+        <v>55555</v>
       </c>
       <c r="AM67" s="11">
-        <v>12846</v>
+        <v>157315</v>
       </c>
       <c r="AN67" s="11">
-        <v>55555</v>
+        <v>80442</v>
       </c>
       <c r="AO67" s="11">
-        <v>157315</v>
+        <v>73747</v>
       </c>
       <c r="AP67" s="11">
-        <v>80442</v>
+        <v>231362</v>
       </c>
       <c r="AQ67" s="11">
-        <v>73747</v>
+        <v>92364</v>
       </c>
       <c r="AR67" s="11">
-        <v>231362</v>
+        <v>7279</v>
       </c>
       <c r="AS67" s="11">
-        <v>92364</v>
+        <v>65114</v>
       </c>
       <c r="AT67" s="11">
-        <v>7279</v>
+        <v>294629</v>
       </c>
       <c r="AU67" s="11">
-        <v>65114</v>
+        <v>232052</v>
       </c>
       <c r="AV67" s="11">
-        <v>294629</v>
+        <v>107985</v>
       </c>
       <c r="AW67" s="11">
-        <v>232052</v>
+        <v>380590</v>
       </c>
       <c r="AX67" s="11">
-        <v>107985</v>
+        <v>300538</v>
       </c>
       <c r="AY67" s="11">
-        <v>380590</v>
+        <v>277738</v>
       </c>
       <c r="AZ67" s="11">
-        <v>300538</v>
+        <v>34741</v>
       </c>
       <c r="BA67" s="11">
-        <v>277738</v>
+        <v>41997</v>
       </c>
       <c r="BB67" s="11">
-        <v>34741</v>
+        <v>293761</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
@@ -8970,14 +9005,14 @@
       <c r="AA68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC68" s="13" t="s">
-        <v>58</v>
+      <c r="AB68" s="13">
+        <v>12400</v>
+      </c>
+      <c r="AC68" s="13">
+        <v>0</v>
       </c>
       <c r="AD68" s="13">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="13">
         <v>0</v>
@@ -9042,11 +9077,11 @@
       <c r="AY68" s="13">
         <v>0</v>
       </c>
-      <c r="AZ68" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA68" s="13">
-        <v>0</v>
+      <c r="AZ68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB68" s="13" t="s">
         <v>58</v>
@@ -9128,85 +9163,85 @@
         <v>0</v>
       </c>
       <c r="AB69" s="15">
-        <v>0</v>
+        <v>702310</v>
       </c>
       <c r="AC69" s="15">
-        <v>0</v>
+        <v>804822</v>
       </c>
       <c r="AD69" s="15">
-        <v>702310</v>
+        <v>717363</v>
       </c>
       <c r="AE69" s="15">
-        <v>804822</v>
+        <v>764188</v>
       </c>
       <c r="AF69" s="15">
-        <v>717363</v>
+        <v>710512</v>
       </c>
       <c r="AG69" s="15">
-        <v>764188</v>
+        <v>1106378</v>
       </c>
       <c r="AH69" s="15">
-        <v>710512</v>
+        <v>660042</v>
       </c>
       <c r="AI69" s="15">
-        <v>1106378</v>
+        <v>660449</v>
       </c>
       <c r="AJ69" s="15">
-        <v>660042</v>
+        <v>749291</v>
       </c>
       <c r="AK69" s="15">
-        <v>660449</v>
+        <v>877639</v>
       </c>
       <c r="AL69" s="15">
-        <v>749291</v>
+        <v>901500</v>
       </c>
       <c r="AM69" s="15">
-        <v>877639</v>
+        <v>1290235</v>
       </c>
       <c r="AN69" s="15">
-        <v>901500</v>
+        <v>745381</v>
       </c>
       <c r="AO69" s="15">
-        <v>1290235</v>
+        <v>954717</v>
       </c>
       <c r="AP69" s="15">
-        <v>745381</v>
+        <v>1090411</v>
       </c>
       <c r="AQ69" s="15">
-        <v>954717</v>
+        <v>773720</v>
       </c>
       <c r="AR69" s="15">
-        <v>1090411</v>
+        <v>1160902</v>
       </c>
       <c r="AS69" s="15">
-        <v>746720</v>
+        <v>1199153</v>
       </c>
       <c r="AT69" s="15">
-        <v>1160902</v>
+        <v>1283960</v>
       </c>
       <c r="AU69" s="15">
-        <v>1199153</v>
+        <v>1307056</v>
       </c>
       <c r="AV69" s="15">
-        <v>1283960</v>
+        <v>1185841</v>
       </c>
       <c r="AW69" s="15">
-        <v>1307056</v>
+        <v>1314230</v>
       </c>
       <c r="AX69" s="15">
-        <v>1185841</v>
+        <v>1054306</v>
       </c>
       <c r="AY69" s="15">
-        <v>1314230</v>
+        <v>1988133</v>
       </c>
       <c r="AZ69" s="15">
-        <v>1054306</v>
+        <v>1170154</v>
       </c>
       <c r="BA69" s="15">
-        <v>1065407</v>
+        <v>1009751</v>
       </c>
       <c r="BB69" s="15">
-        <v>1170154</v>
+        <v>1389239</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.25">
@@ -9343,11 +9378,11 @@
       <c r="AA71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC71" s="11" t="s">
-        <v>58</v>
+      <c r="AB71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="11">
+        <v>0</v>
       </c>
       <c r="AD71" s="11">
         <v>0</v>
@@ -9379,11 +9414,11 @@
       <c r="AM71" s="11">
         <v>0</v>
       </c>
-      <c r="AN71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO71" s="11">
-        <v>0</v>
+      <c r="AN71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP71" s="11" t="s">
         <v>58</v>
@@ -9502,50 +9537,50 @@
       <c r="AA72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC72" s="13" t="s">
-        <v>58</v>
+      <c r="AB72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="13">
+        <v>2903</v>
       </c>
       <c r="AD72" s="13">
-        <v>0</v>
+        <v>53637</v>
       </c>
       <c r="AE72" s="13">
-        <v>2903</v>
+        <v>21210</v>
       </c>
       <c r="AF72" s="13">
-        <v>53637</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="13">
-        <v>21210</v>
+        <v>36016</v>
       </c>
       <c r="AH72" s="13">
-        <v>0</v>
+        <v>39978</v>
       </c>
       <c r="AI72" s="13">
-        <v>36016</v>
+        <v>30722</v>
       </c>
       <c r="AJ72" s="13">
-        <v>39978</v>
+        <v>48719</v>
       </c>
       <c r="AK72" s="13">
-        <v>30722</v>
+        <v>9894</v>
       </c>
       <c r="AL72" s="13">
-        <v>48719</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="13">
-        <v>9894</v>
-      </c>
-      <c r="AN72" s="13">
-        <v>0</v>
+        <v>39723</v>
+      </c>
+      <c r="AN72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO72" s="13">
-        <v>39723</v>
-      </c>
-      <c r="AP72" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AP72" s="13">
+        <v>0</v>
       </c>
       <c r="AQ72" s="13">
         <v>0</v>
@@ -9574,11 +9609,11 @@
       <c r="AY72" s="13">
         <v>0</v>
       </c>
-      <c r="AZ72" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA72" s="13">
-        <v>0</v>
+      <c r="AZ72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB72" s="13" t="s">
         <v>58</v>
@@ -9661,11 +9696,11 @@
       <c r="AA73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC73" s="11" t="s">
-        <v>58</v>
+      <c r="AB73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="11">
+        <v>0</v>
       </c>
       <c r="AD73" s="11">
         <v>0</v>
@@ -9680,67 +9715,67 @@
         <v>0</v>
       </c>
       <c r="AH73" s="11">
-        <v>0</v>
+        <v>3450</v>
       </c>
       <c r="AI73" s="11">
-        <v>0</v>
+        <v>12002</v>
       </c>
       <c r="AJ73" s="11">
-        <v>3450</v>
+        <v>0</v>
       </c>
       <c r="AK73" s="11">
-        <v>12002</v>
+        <v>2964</v>
       </c>
       <c r="AL73" s="11">
         <v>0</v>
       </c>
       <c r="AM73" s="11">
-        <v>2964</v>
+        <v>82</v>
       </c>
       <c r="AN73" s="11">
-        <v>0</v>
+        <v>89139</v>
       </c>
       <c r="AO73" s="11">
-        <v>82</v>
+        <v>20395</v>
       </c>
       <c r="AP73" s="11">
-        <v>89139</v>
+        <v>15246</v>
       </c>
       <c r="AQ73" s="11">
-        <v>20395</v>
+        <v>18852</v>
       </c>
       <c r="AR73" s="11">
-        <v>15246</v>
+        <v>0</v>
       </c>
       <c r="AS73" s="11">
-        <v>18852</v>
+        <v>7973</v>
       </c>
       <c r="AT73" s="11">
-        <v>0</v>
+        <v>12018</v>
       </c>
       <c r="AU73" s="11">
-        <v>7973</v>
+        <v>4354</v>
       </c>
       <c r="AV73" s="11">
-        <v>12018</v>
+        <v>0</v>
       </c>
       <c r="AW73" s="11">
-        <v>4354</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="11">
-        <v>0</v>
+        <v>6730</v>
       </c>
       <c r="AY73" s="11">
-        <v>0</v>
+        <v>9815</v>
       </c>
       <c r="AZ73" s="11">
-        <v>6730</v>
+        <v>0</v>
       </c>
       <c r="BA73" s="11">
-        <v>9815</v>
+        <v>14611</v>
       </c>
       <c r="BB73" s="11">
-        <v>0</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.25">
@@ -9820,53 +9855,53 @@
       <c r="AA74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC74" s="13" t="s">
-        <v>58</v>
+      <c r="AB74" s="13">
+        <v>10139</v>
+      </c>
+      <c r="AC74" s="13">
+        <v>0</v>
       </c>
       <c r="AD74" s="13">
-        <v>10139</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="13">
-        <v>0</v>
+        <v>60456</v>
       </c>
       <c r="AF74" s="13">
-        <v>0</v>
+        <v>42455</v>
       </c>
       <c r="AG74" s="13">
-        <v>60456</v>
+        <v>15863</v>
       </c>
       <c r="AH74" s="13">
-        <v>42455</v>
+        <v>3678</v>
       </c>
       <c r="AI74" s="13">
-        <v>15863</v>
+        <v>16657</v>
       </c>
       <c r="AJ74" s="13">
-        <v>3678</v>
+        <v>17275</v>
       </c>
       <c r="AK74" s="13">
-        <v>16657</v>
+        <v>4712</v>
       </c>
       <c r="AL74" s="13">
-        <v>17275</v>
+        <v>13379</v>
       </c>
       <c r="AM74" s="13">
-        <v>4712</v>
+        <v>4527</v>
       </c>
       <c r="AN74" s="13">
-        <v>13379</v>
+        <v>13695</v>
       </c>
       <c r="AO74" s="13">
-        <v>4527</v>
+        <v>26560</v>
       </c>
       <c r="AP74" s="13">
-        <v>13695</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="13">
-        <v>26560</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="13">
         <v>0</v>
@@ -9875,16 +9910,16 @@
         <v>0</v>
       </c>
       <c r="AT74" s="13">
-        <v>0</v>
+        <v>19492</v>
       </c>
       <c r="AU74" s="13">
-        <v>0</v>
+        <v>10246</v>
       </c>
       <c r="AV74" s="13">
-        <v>19492</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="13">
-        <v>10246</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="13">
         <v>0</v>
@@ -9896,10 +9931,10 @@
         <v>0</v>
       </c>
       <c r="BA74" s="13">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="BB74" s="13">
-        <v>0</v>
+        <v>17821</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.25">
@@ -9978,85 +10013,85 @@
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <v>0</v>
+        <v>10139</v>
       </c>
       <c r="AC75" s="15">
-        <v>0</v>
+        <v>2903</v>
       </c>
       <c r="AD75" s="15">
-        <v>10139</v>
+        <v>53637</v>
       </c>
       <c r="AE75" s="15">
-        <v>2903</v>
+        <v>81666</v>
       </c>
       <c r="AF75" s="15">
-        <v>53637</v>
+        <v>42455</v>
       </c>
       <c r="AG75" s="15">
-        <v>81666</v>
+        <v>51879</v>
       </c>
       <c r="AH75" s="15">
-        <v>42455</v>
+        <v>47106</v>
       </c>
       <c r="AI75" s="15">
-        <v>51879</v>
+        <v>59381</v>
       </c>
       <c r="AJ75" s="15">
-        <v>47106</v>
+        <v>65994</v>
       </c>
       <c r="AK75" s="15">
-        <v>59381</v>
+        <v>17570</v>
       </c>
       <c r="AL75" s="15">
-        <v>65994</v>
+        <v>13379</v>
       </c>
       <c r="AM75" s="15">
-        <v>17570</v>
+        <v>44332</v>
       </c>
       <c r="AN75" s="15">
-        <v>13379</v>
+        <v>102834</v>
       </c>
       <c r="AO75" s="15">
-        <v>44332</v>
+        <v>46955</v>
       </c>
       <c r="AP75" s="15">
-        <v>102834</v>
+        <v>15246</v>
       </c>
       <c r="AQ75" s="15">
-        <v>46955</v>
+        <v>18852</v>
       </c>
       <c r="AR75" s="15">
-        <v>15246</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="15">
-        <v>18852</v>
+        <v>7973</v>
       </c>
       <c r="AT75" s="15">
-        <v>0</v>
+        <v>31510</v>
       </c>
       <c r="AU75" s="15">
-        <v>7973</v>
+        <v>14600</v>
       </c>
       <c r="AV75" s="15">
-        <v>31510</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="15">
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="15">
-        <v>0</v>
+        <v>6730</v>
       </c>
       <c r="AY75" s="15">
-        <v>0</v>
+        <v>9815</v>
       </c>
       <c r="AZ75" s="15">
-        <v>6730</v>
+        <v>0</v>
       </c>
       <c r="BA75" s="15">
-        <v>9815</v>
+        <v>19095</v>
       </c>
       <c r="BB75" s="15">
-        <v>0</v>
+        <v>23765</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.25">
@@ -10193,11 +10228,11 @@
       <c r="AA77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC77" s="11" t="s">
-        <v>58</v>
+      <c r="AB77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="11">
+        <v>0</v>
       </c>
       <c r="AD77" s="11">
         <v>0</v>
@@ -10229,11 +10264,11 @@
       <c r="AM77" s="11">
         <v>0</v>
       </c>
-      <c r="AN77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO77" s="11">
-        <v>0</v>
+      <c r="AN77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP77" s="11" t="s">
         <v>58</v>
@@ -10352,11 +10387,11 @@
       <c r="AA78" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AB78" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC78" s="17" t="s">
-        <v>58</v>
+      <c r="AB78" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="17">
+        <v>0</v>
       </c>
       <c r="AD78" s="17">
         <v>0</v>
@@ -10577,14 +10612,14 @@
       <c r="AD80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF80" s="11" t="s">
-        <v>58</v>
+      <c r="AE80" s="11">
+        <v>-441</v>
+      </c>
+      <c r="AF80" s="11">
+        <v>0</v>
       </c>
       <c r="AG80" s="11">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="AH80" s="11">
         <v>0</v>
@@ -10604,29 +10639,29 @@
       <c r="AM80" s="11">
         <v>0</v>
       </c>
-      <c r="AN80" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO80" s="11">
-        <v>0</v>
+      <c r="AN80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO80" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR80" s="11" t="s">
-        <v>58</v>
+      <c r="AQ80" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="11">
+        <v>0</v>
       </c>
       <c r="AS80" s="11">
-        <v>0</v>
+        <v>-11065</v>
       </c>
       <c r="AT80" s="11">
         <v>0</v>
       </c>
       <c r="AU80" s="11">
-        <v>-11065</v>
+        <v>0</v>
       </c>
       <c r="AV80" s="11">
         <v>0</v>
@@ -10640,11 +10675,11 @@
       <c r="AY80" s="11">
         <v>0</v>
       </c>
-      <c r="AZ80" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA80" s="11">
-        <v>0</v>
+      <c r="AZ80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA80" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB80" s="11" t="s">
         <v>58</v>
@@ -10754,20 +10789,20 @@
       <c r="AJ81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL81" s="13" t="s">
-        <v>58</v>
+      <c r="AK81" s="13">
+        <v>-5212</v>
+      </c>
+      <c r="AL81" s="13">
+        <v>0</v>
       </c>
       <c r="AM81" s="13">
-        <v>-5212</v>
-      </c>
-      <c r="AN81" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO81" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP81" s="13" t="s">
         <v>58</v>
@@ -10790,20 +10825,20 @@
       <c r="AV81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX81" s="13" t="s">
-        <v>58</v>
+      <c r="AW81" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX81" s="13">
+        <v>0</v>
       </c>
       <c r="AY81" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ81" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA81" s="13">
         <v>-6083</v>
+      </c>
+      <c r="AZ81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB81" s="13" t="s">
         <v>58</v>
@@ -10919,14 +10954,14 @@
       <c r="AL82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM82" s="11" t="s">
-        <v>58</v>
+      <c r="AM82" s="11">
+        <v>0</v>
       </c>
       <c r="AN82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO82" s="11">
-        <v>0</v>
+      <c r="AO82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP82" s="11" t="s">
         <v>58</v>
@@ -10937,11 +10972,11 @@
       <c r="AR82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT82" s="11" t="s">
-        <v>58</v>
+      <c r="AS82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="11">
+        <v>0</v>
       </c>
       <c r="AU82" s="11">
         <v>0</v>
@@ -10949,11 +10984,11 @@
       <c r="AV82" s="11">
         <v>0</v>
       </c>
-      <c r="AW82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX82" s="11">
-        <v>0</v>
+      <c r="AW82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY82" s="11" t="s">
         <v>58</v>
@@ -11114,14 +11149,14 @@
       <c r="AX83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY83" s="13" t="s">
-        <v>58</v>
+      <c r="AY83" s="13">
+        <v>-1934</v>
       </c>
       <c r="AZ83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA83" s="13">
-        <v>-1934</v>
+      <c r="BA83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB83" s="13" t="s">
         <v>58</v>
@@ -11204,23 +11239,23 @@
       <c r="AA84" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB84" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC84" s="15" t="s">
-        <v>58</v>
+      <c r="AB84" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="15">
+        <v>0</v>
       </c>
       <c r="AD84" s="15">
         <v>0</v>
       </c>
       <c r="AE84" s="15">
-        <v>0</v>
+        <v>-441</v>
       </c>
       <c r="AF84" s="15">
         <v>0</v>
       </c>
       <c r="AG84" s="15">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="AH84" s="15">
         <v>0</v>
@@ -11232,13 +11267,13 @@
         <v>0</v>
       </c>
       <c r="AK84" s="15">
-        <v>0</v>
+        <v>-5212</v>
       </c>
       <c r="AL84" s="15">
         <v>0</v>
       </c>
       <c r="AM84" s="15">
-        <v>-5212</v>
+        <v>0</v>
       </c>
       <c r="AN84" s="15">
         <v>0</v>
@@ -11256,13 +11291,13 @@
         <v>0</v>
       </c>
       <c r="AS84" s="15">
-        <v>0</v>
+        <v>-11065</v>
       </c>
       <c r="AT84" s="15">
         <v>0</v>
       </c>
       <c r="AU84" s="15">
-        <v>-11065</v>
+        <v>0</v>
       </c>
       <c r="AV84" s="15">
         <v>0</v>
@@ -11274,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="AY84" s="15">
-        <v>0</v>
+        <v>-8017</v>
       </c>
       <c r="AZ84" s="15">
         <v>0</v>
       </c>
       <c r="BA84" s="15">
-        <v>-8017</v>
+        <v>0</v>
       </c>
       <c r="BB84" s="15">
         <v>0</v>
@@ -11420,11 +11455,11 @@
       <c r="AA86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC86" s="11" t="s">
-        <v>58</v>
+      <c r="AB86" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="11">
+        <v>0</v>
       </c>
       <c r="AD86" s="11">
         <v>0</v>
@@ -11578,85 +11613,85 @@
         <v>0</v>
       </c>
       <c r="AB87" s="17">
-        <v>0</v>
+        <v>712449</v>
       </c>
       <c r="AC87" s="17">
-        <v>0</v>
+        <v>807725</v>
       </c>
       <c r="AD87" s="17">
-        <v>712449</v>
+        <v>771000</v>
       </c>
       <c r="AE87" s="17">
-        <v>807725</v>
+        <v>845413</v>
       </c>
       <c r="AF87" s="17">
-        <v>771000</v>
+        <v>752967</v>
       </c>
       <c r="AG87" s="17">
-        <v>845413</v>
+        <v>1158257</v>
       </c>
       <c r="AH87" s="17">
-        <v>752967</v>
+        <v>707148</v>
       </c>
       <c r="AI87" s="17">
-        <v>1158257</v>
+        <v>719830</v>
       </c>
       <c r="AJ87" s="17">
-        <v>707148</v>
+        <v>815285</v>
       </c>
       <c r="AK87" s="17">
-        <v>719830</v>
+        <v>889997</v>
       </c>
       <c r="AL87" s="17">
-        <v>815285</v>
+        <v>914879</v>
       </c>
       <c r="AM87" s="17">
-        <v>889997</v>
+        <v>1334567</v>
       </c>
       <c r="AN87" s="17">
-        <v>914879</v>
+        <v>848215</v>
       </c>
       <c r="AO87" s="17">
-        <v>1334567</v>
+        <v>1001672</v>
       </c>
       <c r="AP87" s="17">
-        <v>848215</v>
+        <v>1105657</v>
       </c>
       <c r="AQ87" s="17">
-        <v>1001672</v>
+        <v>792572</v>
       </c>
       <c r="AR87" s="17">
-        <v>1105657</v>
+        <v>1160902</v>
       </c>
       <c r="AS87" s="17">
-        <v>765572</v>
+        <v>1196061</v>
       </c>
       <c r="AT87" s="17">
-        <v>1160902</v>
+        <v>1315470</v>
       </c>
       <c r="AU87" s="17">
-        <v>1196061</v>
+        <v>1321656</v>
       </c>
       <c r="AV87" s="17">
-        <v>1315470</v>
+        <v>1185841</v>
       </c>
       <c r="AW87" s="17">
-        <v>1321656</v>
+        <v>1314230</v>
       </c>
       <c r="AX87" s="17">
-        <v>1185841</v>
+        <v>1061036</v>
       </c>
       <c r="AY87" s="17">
-        <v>1314230</v>
+        <v>1989931</v>
       </c>
       <c r="AZ87" s="17">
-        <v>1061036</v>
+        <v>1170154</v>
       </c>
       <c r="BA87" s="17">
-        <v>1067205</v>
+        <v>1028846</v>
       </c>
       <c r="BB87" s="17">
-        <v>1170154</v>
+        <v>1413004</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.25">
@@ -12170,14 +12205,14 @@
       <c r="AA94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB94" s="11" t="s">
-        <v>58</v>
+      <c r="AB94" s="11">
+        <v>112200000</v>
       </c>
       <c r="AC94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD94" s="11">
-        <v>112200000</v>
+      <c r="AD94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE94" s="11" t="s">
         <v>58</v>
@@ -12212,17 +12247,17 @@
       <c r="AO94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP94" s="11" t="s">
-        <v>58</v>
+      <c r="AP94" s="11">
+        <v>1500000000</v>
       </c>
       <c r="AQ94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR94" s="11">
-        <v>1500000000</v>
-      </c>
-      <c r="AS94" s="11">
-        <v>-1500000000</v>
+      <c r="AR94" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT94" s="11" t="s">
         <v>58</v>
@@ -12329,86 +12364,86 @@
       <c r="AA95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC95" s="13" t="s">
-        <v>58</v>
+      <c r="AB95" s="13">
+        <v>104510204</v>
+      </c>
+      <c r="AC95" s="13">
+        <v>107147059</v>
       </c>
       <c r="AD95" s="13">
-        <v>104510204</v>
+        <v>111286420</v>
       </c>
       <c r="AE95" s="13">
-        <v>107147059</v>
-      </c>
-      <c r="AF95" s="13">
-        <v>111286420</v>
+        <v>103645503</v>
+      </c>
+      <c r="AF95" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG95" s="13">
-        <v>103645503</v>
-      </c>
-      <c r="AH95" s="13" t="s">
-        <v>58</v>
+        <v>119715128</v>
+      </c>
+      <c r="AH95" s="13">
+        <v>144826211</v>
       </c>
       <c r="AI95" s="13">
-        <v>119715128</v>
+        <v>148083770</v>
       </c>
       <c r="AJ95" s="13">
-        <v>144826211</v>
+        <v>138567426</v>
       </c>
       <c r="AK95" s="13">
-        <v>148083770</v>
+        <v>147333333</v>
       </c>
       <c r="AL95" s="13">
-        <v>138567426</v>
+        <v>144695015</v>
       </c>
       <c r="AM95" s="13">
-        <v>147333333</v>
+        <v>125586207</v>
       </c>
       <c r="AN95" s="13">
-        <v>144695015</v>
+        <v>138090508</v>
       </c>
       <c r="AO95" s="13">
-        <v>125586207</v>
+        <v>176690667</v>
       </c>
       <c r="AP95" s="13">
-        <v>138090508</v>
+        <v>186102133</v>
       </c>
       <c r="AQ95" s="13">
-        <v>176690667</v>
+        <v>193111001</v>
       </c>
       <c r="AR95" s="13">
-        <v>186102133</v>
+        <v>202641950</v>
       </c>
       <c r="AS95" s="13">
-        <v>193111001</v>
+        <v>179581232</v>
       </c>
       <c r="AT95" s="13">
-        <v>202641950</v>
+        <v>217353919</v>
       </c>
       <c r="AU95" s="13">
-        <v>179581232</v>
+        <v>172459397</v>
       </c>
       <c r="AV95" s="13">
-        <v>217353919</v>
+        <v>194908806</v>
       </c>
       <c r="AW95" s="13">
-        <v>172459397</v>
+        <v>216306081</v>
       </c>
       <c r="AX95" s="13">
-        <v>194908806</v>
+        <v>218462523</v>
       </c>
       <c r="AY95" s="13">
-        <v>216306081</v>
+        <v>728925668</v>
       </c>
       <c r="AZ95" s="13">
-        <v>218462523</v>
+        <v>204588926</v>
       </c>
       <c r="BA95" s="13">
-        <v>193079559</v>
+        <v>197617574</v>
       </c>
       <c r="BB95" s="13">
-        <v>204588926</v>
+        <v>214223560</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.25">
@@ -12488,86 +12523,86 @@
       <c r="AA96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC96" s="11" t="s">
-        <v>58</v>
+      <c r="AB96" s="11">
+        <v>110135354</v>
+      </c>
+      <c r="AC96" s="11">
+        <v>114162927</v>
       </c>
       <c r="AD96" s="11">
-        <v>110135354</v>
+        <v>121184615</v>
       </c>
       <c r="AE96" s="11">
-        <v>114162927</v>
+        <v>125701783</v>
       </c>
       <c r="AF96" s="11">
-        <v>121184615</v>
+        <v>131023672</v>
       </c>
       <c r="AG96" s="11">
-        <v>125701783</v>
+        <v>153095025</v>
       </c>
       <c r="AH96" s="11">
-        <v>131023672</v>
+        <v>155102134</v>
       </c>
       <c r="AI96" s="11">
-        <v>153095025</v>
+        <v>135592016</v>
       </c>
       <c r="AJ96" s="11">
-        <v>155102134</v>
+        <v>120656738</v>
       </c>
       <c r="AK96" s="11">
-        <v>135592016</v>
+        <v>117285199</v>
       </c>
       <c r="AL96" s="11">
-        <v>120656738</v>
+        <v>115303879</v>
       </c>
       <c r="AM96" s="11">
-        <v>117285199</v>
+        <v>122436303</v>
       </c>
       <c r="AN96" s="11">
-        <v>115303879</v>
+        <v>132094536</v>
       </c>
       <c r="AO96" s="11">
-        <v>122436303</v>
+        <v>134500894</v>
       </c>
       <c r="AP96" s="11">
-        <v>132094536</v>
+        <v>145091837</v>
       </c>
       <c r="AQ96" s="11">
-        <v>134500894</v>
+        <v>152818584</v>
       </c>
       <c r="AR96" s="11">
-        <v>145091837</v>
+        <v>160730249</v>
       </c>
       <c r="AS96" s="11">
-        <v>152818584</v>
+        <v>163136459</v>
       </c>
       <c r="AT96" s="11">
-        <v>160730249</v>
+        <v>167694370</v>
       </c>
       <c r="AU96" s="11">
-        <v>163136459</v>
+        <v>169637658</v>
       </c>
       <c r="AV96" s="11">
-        <v>167694370</v>
+        <v>173488441</v>
       </c>
       <c r="AW96" s="11">
-        <v>169637658</v>
+        <v>172293844</v>
       </c>
       <c r="AX96" s="11">
-        <v>173488441</v>
+        <v>169731830</v>
       </c>
       <c r="AY96" s="11">
-        <v>172293844</v>
+        <v>155977086</v>
       </c>
       <c r="AZ96" s="11">
-        <v>169731830</v>
+        <v>158722089</v>
       </c>
       <c r="BA96" s="11">
-        <v>155977673</v>
+        <v>159389402</v>
       </c>
       <c r="BB96" s="11">
-        <v>158722089</v>
+        <v>158233193</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.25">
@@ -12647,86 +12682,86 @@
       <c r="AA97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC97" s="13" t="s">
-        <v>58</v>
+      <c r="AB97" s="13">
+        <v>157256720</v>
+      </c>
+      <c r="AC97" s="13">
+        <v>161679036</v>
       </c>
       <c r="AD97" s="13">
-        <v>157256720</v>
+        <v>159366505</v>
       </c>
       <c r="AE97" s="13">
-        <v>161679036</v>
+        <v>152992167</v>
       </c>
       <c r="AF97" s="13">
-        <v>159366505</v>
+        <v>194598786</v>
       </c>
       <c r="AG97" s="13">
-        <v>152992167</v>
+        <v>198080928</v>
       </c>
       <c r="AH97" s="13">
-        <v>194598786</v>
+        <v>185921713</v>
       </c>
       <c r="AI97" s="13">
-        <v>198080928</v>
+        <v>192618992</v>
       </c>
       <c r="AJ97" s="13">
-        <v>185921713</v>
+        <v>184935950</v>
       </c>
       <c r="AK97" s="13">
-        <v>192618992</v>
+        <v>219171889</v>
       </c>
       <c r="AL97" s="13">
-        <v>184935950</v>
+        <v>189771886</v>
       </c>
       <c r="AM97" s="13">
-        <v>219171889</v>
+        <v>225602174</v>
       </c>
       <c r="AN97" s="13">
-        <v>189771886</v>
+        <v>238329643</v>
       </c>
       <c r="AO97" s="13">
-        <v>225602174</v>
+        <v>240558602</v>
       </c>
       <c r="AP97" s="13">
-        <v>238329643</v>
+        <v>239197974</v>
       </c>
       <c r="AQ97" s="13">
-        <v>240558602</v>
+        <v>232757576</v>
       </c>
       <c r="AR97" s="13">
-        <v>239197974</v>
+        <v>237500000</v>
       </c>
       <c r="AS97" s="13">
-        <v>232757576</v>
+        <v>206106481</v>
       </c>
       <c r="AT97" s="13">
-        <v>237500000</v>
+        <v>259730620</v>
       </c>
       <c r="AU97" s="13">
-        <v>206106481</v>
+        <v>285383817</v>
       </c>
       <c r="AV97" s="13">
-        <v>259730620</v>
+        <v>224688034</v>
       </c>
       <c r="AW97" s="13">
-        <v>285383817</v>
+        <v>239054839</v>
       </c>
       <c r="AX97" s="13">
-        <v>224688034</v>
+        <v>195200000</v>
       </c>
       <c r="AY97" s="13">
-        <v>239054839</v>
+        <v>264960894</v>
       </c>
       <c r="AZ97" s="13">
-        <v>195200000</v>
+        <v>246700236</v>
       </c>
       <c r="BA97" s="13">
-        <v>264960894</v>
+        <v>259947718</v>
       </c>
       <c r="BB97" s="13">
-        <v>246700236</v>
+        <v>260262093</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.25">
@@ -12815,77 +12850,77 @@
       <c r="AD98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF98" s="11" t="s">
-        <v>58</v>
+      <c r="AE98" s="11">
+        <v>152155556</v>
+      </c>
+      <c r="AF98" s="11">
+        <v>165623188</v>
       </c>
       <c r="AG98" s="11">
-        <v>152155556</v>
+        <v>190736086</v>
       </c>
       <c r="AH98" s="11">
-        <v>165623188</v>
-      </c>
-      <c r="AI98" s="11">
-        <v>190736086</v>
+        <v>181136364</v>
+      </c>
+      <c r="AI98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ98" s="11">
-        <v>181136364</v>
-      </c>
-      <c r="AK98" s="11" t="s">
-        <v>58</v>
+        <v>187716418</v>
+      </c>
+      <c r="AK98" s="11">
+        <v>186173913</v>
       </c>
       <c r="AL98" s="11">
-        <v>187716418</v>
+        <v>183349835</v>
       </c>
       <c r="AM98" s="11">
-        <v>186173913</v>
+        <v>192787990</v>
       </c>
       <c r="AN98" s="11">
-        <v>183349835</v>
+        <v>202624685</v>
       </c>
       <c r="AO98" s="11">
-        <v>192787990</v>
+        <v>209508523</v>
       </c>
       <c r="AP98" s="11">
-        <v>202624685</v>
+        <v>215420857</v>
       </c>
       <c r="AQ98" s="11">
-        <v>209508523</v>
+        <v>225278049</v>
       </c>
       <c r="AR98" s="11">
-        <v>215420857</v>
+        <v>251000000</v>
       </c>
       <c r="AS98" s="11">
-        <v>225278049</v>
+        <v>288115044</v>
       </c>
       <c r="AT98" s="11">
-        <v>251000000</v>
+        <v>295812249</v>
       </c>
       <c r="AU98" s="11">
-        <v>288115044</v>
+        <v>305331579</v>
       </c>
       <c r="AV98" s="11">
-        <v>295812249</v>
+        <v>273379747</v>
       </c>
       <c r="AW98" s="11">
-        <v>305331579</v>
+        <v>243343990</v>
       </c>
       <c r="AX98" s="11">
-        <v>273379747</v>
+        <v>222620741</v>
       </c>
       <c r="AY98" s="11">
-        <v>243343990</v>
+        <v>212337920</v>
       </c>
       <c r="AZ98" s="11">
-        <v>222620741</v>
+        <v>201982558</v>
       </c>
       <c r="BA98" s="11">
-        <v>212337920</v>
+        <v>233316667</v>
       </c>
       <c r="BB98" s="11">
-        <v>201982558</v>
+        <v>232405854</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.25">
@@ -12965,14 +13000,14 @@
       <c r="AA99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB99" s="13" t="s">
-        <v>58</v>
+      <c r="AB99" s="13">
+        <v>62000000</v>
       </c>
       <c r="AC99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD99" s="13">
-        <v>62000000</v>
+      <c r="AD99" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE99" s="13" t="s">
         <v>58</v>
@@ -13184,44 +13219,44 @@
       <c r="AB101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD101" s="11" t="s">
-        <v>58</v>
+      <c r="AC101" s="11">
+        <v>120958333</v>
+      </c>
+      <c r="AD101" s="11">
+        <v>140044386</v>
       </c>
       <c r="AE101" s="11">
-        <v>120958333</v>
-      </c>
-      <c r="AF101" s="11">
-        <v>140044386</v>
+        <v>110468750</v>
+      </c>
+      <c r="AF101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG101" s="11">
-        <v>110468750</v>
-      </c>
-      <c r="AH101" s="11" t="s">
-        <v>58</v>
+        <v>135909434</v>
+      </c>
+      <c r="AH101" s="11">
+        <v>151431818</v>
       </c>
       <c r="AI101" s="11">
-        <v>135909434</v>
+        <v>112124088</v>
       </c>
       <c r="AJ101" s="11">
-        <v>151431818</v>
+        <v>145429851</v>
       </c>
       <c r="AK101" s="11">
-        <v>112124088</v>
-      </c>
-      <c r="AL101" s="11">
-        <v>145429851</v>
+        <v>210510638</v>
+      </c>
+      <c r="AL101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM101" s="11">
-        <v>210510638</v>
+        <v>827562500</v>
       </c>
       <c r="AN101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO101" s="11">
-        <v>827562500</v>
+      <c r="AO101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP101" s="11" t="s">
         <v>58</v>
@@ -13358,68 +13393,68 @@
       <c r="AG102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ102" s="13">
+      <c r="AH102" s="13">
         <v>143750000</v>
       </c>
+      <c r="AI102" s="13">
+        <v>131890110</v>
+      </c>
+      <c r="AJ102" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK102" s="13">
-        <v>131890110</v>
+        <v>123500000</v>
       </c>
       <c r="AL102" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AM102" s="13">
-        <v>123500000</v>
-      </c>
-      <c r="AN102" s="13" t="s">
-        <v>58</v>
+        <v>8200000</v>
+      </c>
+      <c r="AN102" s="13">
+        <v>158893048</v>
       </c>
       <c r="AO102" s="13">
-        <v>8200000</v>
+        <v>168553719</v>
       </c>
       <c r="AP102" s="13">
-        <v>158893048</v>
+        <v>158812500</v>
       </c>
       <c r="AQ102" s="13">
-        <v>168553719</v>
-      </c>
-      <c r="AR102" s="13">
-        <v>158812500</v>
+        <v>154524590</v>
+      </c>
+      <c r="AR102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS102" s="13">
-        <v>154524590</v>
-      </c>
-      <c r="AT102" s="13" t="s">
-        <v>58</v>
+        <v>166104167</v>
+      </c>
+      <c r="AT102" s="13">
+        <v>174173913</v>
       </c>
       <c r="AU102" s="13">
-        <v>166104167</v>
-      </c>
-      <c r="AV102" s="13">
-        <v>174173913</v>
-      </c>
-      <c r="AW102" s="13">
         <v>181416667</v>
       </c>
-      <c r="AX102" s="13" t="s">
-        <v>58</v>
+      <c r="AV102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX102" s="13">
+        <v>149555556</v>
       </c>
       <c r="AY102" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ102" s="13">
-        <v>149555556</v>
+        <v>142246377</v>
+      </c>
+      <c r="AZ102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA102" s="13">
-        <v>142246377</v>
-      </c>
-      <c r="BB102" s="13" t="s">
-        <v>58</v>
+        <v>128166667</v>
+      </c>
+      <c r="BB102" s="13">
+        <v>129217391</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.25">
@@ -13499,86 +13534,86 @@
       <c r="AA103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB103" s="11" t="s">
-        <v>58</v>
+      <c r="AB103" s="11">
+        <v>140819444</v>
       </c>
       <c r="AC103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD103" s="11">
-        <v>140819444</v>
-      </c>
-      <c r="AE103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF103" s="11" t="s">
-        <v>58</v>
+      <c r="AD103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE103" s="11">
+        <v>139621247</v>
+      </c>
+      <c r="AF103" s="11">
+        <v>144404762</v>
       </c>
       <c r="AG103" s="11">
-        <v>139621247</v>
+        <v>136750000</v>
       </c>
       <c r="AH103" s="11">
-        <v>144404762</v>
+        <v>167181818</v>
       </c>
       <c r="AI103" s="11">
-        <v>136750000</v>
+        <v>183043956</v>
       </c>
       <c r="AJ103" s="11">
-        <v>167181818</v>
+        <v>191944444</v>
       </c>
       <c r="AK103" s="11">
-        <v>183043956</v>
+        <v>204869565</v>
       </c>
       <c r="AL103" s="11">
-        <v>191944444</v>
+        <v>199686567</v>
       </c>
       <c r="AM103" s="11">
-        <v>204869565</v>
+        <v>215571429</v>
       </c>
       <c r="AN103" s="11">
-        <v>199686567</v>
+        <v>201397059</v>
       </c>
       <c r="AO103" s="11">
-        <v>215571429</v>
-      </c>
-      <c r="AP103" s="11">
-        <v>201397059</v>
-      </c>
-      <c r="AQ103" s="11">
         <v>195294118</v>
       </c>
+      <c r="AP103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS103" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV103" s="11">
+      <c r="AS103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT103" s="11">
         <v>207361702</v>
       </c>
-      <c r="AW103" s="11">
+      <c r="AU103" s="11">
         <v>218000000</v>
       </c>
+      <c r="AV103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY103" s="11">
-        <v>0</v>
+      <c r="AY103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB103" s="11" t="s">
-        <v>58</v>
+      <c r="BA103" s="11">
+        <v>194956522</v>
+      </c>
+      <c r="BB103" s="11">
+        <v>191623656</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.25">
@@ -13715,11 +13750,11 @@
       <c r="AA105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC105" s="11" t="s">
-        <v>58</v>
+      <c r="AB105" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="11">
+        <v>0</v>
       </c>
       <c r="AD105" s="11">
         <v>0</v>
@@ -13751,11 +13786,11 @@
       <c r="AM105" s="11">
         <v>0</v>
       </c>
-      <c r="AN105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO105" s="11">
-        <v>0</v>
+      <c r="AN105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP105" s="11" t="s">
         <v>58</v>

--- a/database/industries/kaghaz/chekapa/product/monthly_seprated.xlsx
+++ b/database/industries/kaghaz/chekapa/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="90">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3313,8 +3313,8 @@
       <c r="Y11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="13" t="s">
-        <v>58</v>
+      <c r="Z11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA11" s="13" t="n">
         <v>0</v>
@@ -3328,11 +3328,11 @@
       <c r="AD11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>58</v>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG11" s="13" t="n">
         <v>0</v>
@@ -3346,20 +3346,20 @@
       <c r="AJ11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="13" t="s">
-        <v>58</v>
+      <c r="AK11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AM11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="13" t="n">
         <v>0</v>
@@ -3385,14 +3385,14 @@
       <c r="AW11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX11" s="13" t="n">
-        <v>0</v>
+      <c r="AX11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ11" s="13" t="s">
-        <v>58</v>
+      <c r="AZ11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA11" s="13" t="n">
         <v>0</v>
@@ -3472,92 +3472,92 @@
       <c r="Y12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="16" t="s">
-        <v>58</v>
+      <c r="Z12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>1901</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>169</v>
+        <v>1155</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>1155</v>
+        <v>206</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>1018</v>
+        <v>841</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>841</v>
+        <v>1416</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>1416</v>
+        <v>2367</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>2367</v>
+        <v>3756</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>3756</v>
+        <v>3596</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>3596</v>
+        <v>1309</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>1309</v>
+        <v>3061</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>3061</v>
+        <v>2868</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>2868</v>
+        <v>1721</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>1721</v>
+        <v>3500</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>3500</v>
+        <v>1640</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>1640</v>
+        <v>1199</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>1199</v>
+        <v>1256</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>1256</v>
+        <v>2333</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>2333</v>
+        <v>1485</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>1485</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,92 +3631,92 @@
       <c r="Y13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="13" t="s">
-        <v>58</v>
+      <c r="Z13" s="13" t="n">
+        <v>1394</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>1394</v>
+        <v>1917</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>1917</v>
+        <v>1849</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>1849</v>
+        <v>1960</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>1960</v>
+        <v>1946</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>1946</v>
+        <v>2115</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>2115</v>
+        <v>1996</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>1996</v>
+        <v>916</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>916</v>
+        <v>822</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>822</v>
+        <v>1682</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>1682</v>
+        <v>1795</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>1795</v>
+        <v>1868</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>1868</v>
+        <v>1036</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>1036</v>
+        <v>2088</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>2088</v>
+        <v>2006</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>2006</v>
+        <v>1881</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>1881</v>
+        <v>2137</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>2137</v>
+        <v>2023</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>2023</v>
+        <v>1836</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>1836</v>
+        <v>2487</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>2487</v>
+        <v>2350</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>2350</v>
+        <v>1999</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>1999</v>
+        <v>1718</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>1718</v>
+        <v>1568</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>1568</v>
+        <v>1694</v>
       </c>
       <c r="AY13" s="13" t="n">
+        <v>1591</v>
+      </c>
+      <c r="AZ13" s="13" t="n">
+        <v>1916</v>
+      </c>
+      <c r="BA13" s="13" t="n">
         <v>1694</v>
       </c>
-      <c r="AZ13" s="13" t="n">
-        <v>1591</v>
-      </c>
-      <c r="BA13" s="13" t="n">
-        <v>1916</v>
-      </c>
       <c r="BB13" s="13" t="n">
-        <v>1694</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,92 +3790,92 @@
       <c r="Y14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="16" t="s">
-        <v>58</v>
+      <c r="Z14" s="16" t="n">
+        <v>3215</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>3215</v>
+        <v>3780</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>3780</v>
+        <v>3030</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>3030</v>
+        <v>2713</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>2713</v>
+        <v>1624</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>1624</v>
+        <v>1999</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1999</v>
+        <v>3342</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>3342</v>
+        <v>2045</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>2045</v>
+        <v>2021</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>2021</v>
+        <v>2157</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>2157</v>
+        <v>2673</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>2673</v>
+        <v>2702</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>2702</v>
+        <v>1334</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>1334</v>
+        <v>1830</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>1830</v>
+        <v>1055</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>1055</v>
+        <v>80</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>1</v>
+        <v>730</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>730</v>
+        <v>1649</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>1649</v>
+        <v>342</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>342</v>
+        <v>521</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>521</v>
+        <v>281</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>852</v>
+        <v>2840</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>2840</v>
+        <v>1755</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>1755</v>
+        <v>464</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>464</v>
+        <v>255</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,83 +3958,83 @@
       <c r="AB15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC15" s="13" t="s">
-        <v>58</v>
+      <c r="AC15" s="13" t="n">
+        <v>848</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>848</v>
+        <v>1309</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>1309</v>
+        <v>47</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>312</v>
+        <v>15</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>299</v>
+        <v>1211</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>1211</v>
+        <v>246</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>246</v>
+        <v>395</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>395</v>
+        <v>1112</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>1112</v>
+        <v>373</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>275</v>
+        <v>991</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>972</v>
+        <v>208</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>208</v>
+        <v>2099</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>2099</v>
+        <v>1161</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>1149</v>
+        <v>44</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>233</v>
+        <v>1207</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>1207</v>
+        <v>1889</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>1889</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4108,11 +4108,11 @@
       <c r="Y16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="16" t="s">
-        <v>58</v>
+      <c r="Z16" s="16" t="n">
+        <v>200</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="16" t="n">
         <v>0</v>
@@ -4123,11 +4123,11 @@
       <c r="AD16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="16" t="s">
-        <v>58</v>
+      <c r="AE16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG16" s="16" t="n">
         <v>0</v>
@@ -4141,11 +4141,11 @@
       <c r="AJ16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AK16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="16" t="s">
-        <v>58</v>
+      <c r="AK16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AM16" s="16" t="n">
         <v>0</v>
@@ -4180,8 +4180,8 @@
       <c r="AW16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX16" s="16" t="n">
-        <v>0</v>
+      <c r="AX16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY16" s="16" t="s">
         <v>58</v>
@@ -4266,91 +4266,91 @@
         <v>0</v>
       </c>
       <c r="Z17" s="18" t="n">
-        <v>0</v>
+        <v>4809</v>
       </c>
       <c r="AA17" s="18" t="n">
-        <v>4809</v>
+        <v>5782</v>
       </c>
       <c r="AB17" s="18" t="n">
-        <v>5782</v>
+        <v>5253</v>
       </c>
       <c r="AC17" s="18" t="n">
-        <v>5253</v>
+        <v>5658</v>
       </c>
       <c r="AD17" s="18" t="n">
-        <v>5658</v>
+        <v>4879</v>
       </c>
       <c r="AE17" s="18" t="n">
-        <v>4879</v>
+        <v>6062</v>
       </c>
       <c r="AF17" s="18" t="n">
-        <v>6062</v>
+        <v>5341</v>
       </c>
       <c r="AG17" s="18" t="n">
-        <v>5341</v>
+        <v>3064</v>
       </c>
       <c r="AH17" s="18" t="n">
-        <v>3064</v>
+        <v>3324</v>
       </c>
       <c r="AI17" s="18" t="n">
-        <v>3324</v>
+        <v>5009</v>
       </c>
       <c r="AJ17" s="18" t="n">
-        <v>5009</v>
+        <v>4973</v>
       </c>
       <c r="AK17" s="18" t="n">
-        <v>4973</v>
+        <v>5781</v>
       </c>
       <c r="AL17" s="18" t="n">
-        <v>5781</v>
+        <v>3634</v>
       </c>
       <c r="AM17" s="18" t="n">
-        <v>3634</v>
+        <v>5154</v>
       </c>
       <c r="AN17" s="18" t="n">
-        <v>5154</v>
+        <v>5607</v>
       </c>
       <c r="AO17" s="18" t="n">
-        <v>5607</v>
+        <v>4701</v>
       </c>
       <c r="AP17" s="18" t="n">
-        <v>4701</v>
+        <v>5894</v>
       </c>
       <c r="AQ17" s="18" t="n">
-        <v>5894</v>
+        <v>6624</v>
       </c>
       <c r="AR17" s="18" t="n">
-        <v>6624</v>
+        <v>5785</v>
       </c>
       <c r="AS17" s="18" t="n">
-        <v>5785</v>
+        <v>6862</v>
       </c>
       <c r="AT17" s="18" t="n">
-        <v>6862</v>
+        <v>5947</v>
       </c>
       <c r="AU17" s="18" t="n">
-        <v>5947</v>
+        <v>6100</v>
       </c>
       <c r="AV17" s="18" t="n">
-        <v>6100</v>
+        <v>6379</v>
       </c>
       <c r="AW17" s="18" t="n">
-        <v>6379</v>
+        <v>5209</v>
       </c>
       <c r="AX17" s="18" t="n">
-        <v>5209</v>
+        <v>5777</v>
       </c>
       <c r="AY17" s="18" t="n">
-        <v>5777</v>
+        <v>4835</v>
       </c>
       <c r="AZ17" s="18" t="n">
-        <v>4835</v>
+        <v>5920</v>
       </c>
       <c r="BA17" s="18" t="n">
-        <v>5920</v>
+        <v>5323</v>
       </c>
       <c r="BB17" s="18" t="n">
-        <v>5323</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,8 +4481,8 @@
       <c r="Y19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="13" t="s">
-        <v>58</v>
+      <c r="Z19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA19" s="13" t="n">
         <v>0</v>
@@ -4496,11 +4496,11 @@
       <c r="AD19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="13" t="s">
-        <v>58</v>
+      <c r="AE19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG19" s="13" t="n">
         <v>0</v>
@@ -4514,8 +4514,8 @@
       <c r="AJ19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK19" s="13" t="n">
-        <v>0</v>
+      <c r="AK19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL19" s="13" t="s">
         <v>58</v>
@@ -4640,14 +4640,14 @@
       <c r="Y20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" s="16" t="s">
-        <v>58</v>
+      <c r="Z20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AA20" s="16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB20" s="16" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="16" t="n">
         <v>0</v>
@@ -4655,35 +4655,35 @@
       <c r="AD20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="16" t="s">
-        <v>58</v>
+      <c r="AE20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" s="16" t="n">
+        <v>284</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AH20" s="16" t="n">
-        <v>274</v>
+        <v>579</v>
       </c>
       <c r="AI20" s="16" t="n">
-        <v>579</v>
+        <v>47</v>
       </c>
       <c r="AJ20" s="16" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="16" t="n">
         <v>1204</v>
       </c>
+      <c r="AL20" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AM20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="16" t="s">
-        <v>58</v>
+      <c r="AN20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO20" s="16" t="n">
         <v>0</v>
@@ -4712,8 +4712,8 @@
       <c r="AW20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX20" s="16" t="n">
-        <v>0</v>
+      <c r="AX20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY20" s="16" t="s">
         <v>58</v>
@@ -4799,8 +4799,8 @@
       <c r="Y21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="13" t="s">
-        <v>58</v>
+      <c r="Z21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA21" s="13" t="n">
         <v>0</v>
@@ -4814,77 +4814,77 @@
       <c r="AD21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="13" t="s">
-        <v>58</v>
+      <c r="AE21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>20</v>
+        <v>614</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>614</v>
+        <v>121</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AR21" s="13" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="AS21" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW21" s="13" t="n">
         <v>69</v>
       </c>
-      <c r="AT21" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="13" t="n">
-        <v>45</v>
-      </c>
       <c r="AX21" s="13" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="AZ21" s="13" t="n">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,32 +4958,32 @@
       <c r="Y22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="16" t="s">
-        <v>58</v>
+      <c r="Z22" s="16" t="n">
+        <v>72</v>
       </c>
       <c r="AA22" s="16" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC22" s="16" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AD22" s="16" t="n">
-        <v>433</v>
+        <v>294</v>
       </c>
       <c r="AE22" s="16" t="n">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="AF22" s="16" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="16" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AH22" s="16" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="16" t="n">
         <v>0</v>
@@ -4992,16 +4992,16 @@
         <v>0</v>
       </c>
       <c r="AK22" s="16" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="AL22" s="16" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AM22" s="16" t="n">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="AN22" s="16" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="16" t="n">
         <v>0</v>
@@ -5013,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="AR22" s="16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AS22" s="16" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="AT22" s="16" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="16" t="n">
         <v>0</v>
@@ -5034,16 +5034,16 @@
         <v>0</v>
       </c>
       <c r="AY22" s="16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AZ22" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="BA22" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="BA22" s="16" t="n">
-        <v>93</v>
-      </c>
       <c r="BB22" s="16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,91 +5116,91 @@
         <v>0</v>
       </c>
       <c r="Z23" s="18" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AA23" s="18" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="AB23" s="18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="18" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AD23" s="18" t="n">
-        <v>433</v>
+        <v>294</v>
       </c>
       <c r="AE23" s="18" t="n">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="AF23" s="18" t="n">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="AG23" s="18" t="n">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="AH23" s="18" t="n">
-        <v>456</v>
+        <v>579</v>
       </c>
       <c r="AI23" s="18" t="n">
-        <v>579</v>
+        <v>75</v>
       </c>
       <c r="AJ23" s="18" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="18" t="n">
-        <v>0</v>
+        <v>1447</v>
       </c>
       <c r="AL23" s="18" t="n">
-        <v>1447</v>
+        <v>833</v>
       </c>
       <c r="AM23" s="18" t="n">
-        <v>833</v>
+        <v>257</v>
       </c>
       <c r="AN23" s="18" t="n">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="AO23" s="18" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AP23" s="18" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="18" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AR23" s="18" t="n">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="AS23" s="18" t="n">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="AT23" s="18" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV23" s="18" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AW23" s="18" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AX23" s="18" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="18" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AZ23" s="18" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BA23" s="18" t="n">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="BB23" s="18" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,8 +5331,8 @@
       <c r="Y25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z25" s="13" t="s">
-        <v>58</v>
+      <c r="Z25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA25" s="13" t="n">
         <v>0</v>
@@ -5346,26 +5346,26 @@
       <c r="AD25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>58</v>
+      <c r="AE25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH25" s="13" t="n">
-        <v>0</v>
+      <c r="AH25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK25" s="13" t="n">
-        <v>0</v>
+      <c r="AJ25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL25" s="13" t="s">
         <v>58</v>
@@ -5488,8 +5488,8 @@
       <c r="Y26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="Z26" s="20" t="s">
-        <v>58</v>
+      <c r="Z26" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AA26" s="20" t="n">
         <v>0</v>
@@ -5646,91 +5646,91 @@
         <v>0</v>
       </c>
       <c r="Z27" s="18" t="n">
-        <v>0</v>
+        <v>4881</v>
       </c>
       <c r="AA27" s="18" t="n">
-        <v>4881</v>
+        <v>5806</v>
       </c>
       <c r="AB27" s="18" t="n">
-        <v>5806</v>
+        <v>5253</v>
       </c>
       <c r="AC27" s="18" t="n">
-        <v>5253</v>
+        <v>6091</v>
       </c>
       <c r="AD27" s="18" t="n">
-        <v>6091</v>
+        <v>5173</v>
       </c>
       <c r="AE27" s="18" t="n">
-        <v>5173</v>
+        <v>6178</v>
       </c>
       <c r="AF27" s="18" t="n">
-        <v>6178</v>
+        <v>5625</v>
       </c>
       <c r="AG27" s="18" t="n">
-        <v>5625</v>
+        <v>3520</v>
       </c>
       <c r="AH27" s="18" t="n">
-        <v>3520</v>
+        <v>3903</v>
       </c>
       <c r="AI27" s="18" t="n">
-        <v>3903</v>
+        <v>5084</v>
       </c>
       <c r="AJ27" s="18" t="n">
-        <v>5084</v>
+        <v>4973</v>
       </c>
       <c r="AK27" s="18" t="n">
-        <v>4973</v>
+        <v>7228</v>
       </c>
       <c r="AL27" s="18" t="n">
-        <v>7228</v>
+        <v>4467</v>
       </c>
       <c r="AM27" s="18" t="n">
-        <v>4467</v>
+        <v>5411</v>
       </c>
       <c r="AN27" s="18" t="n">
-        <v>5411</v>
+        <v>5703</v>
       </c>
       <c r="AO27" s="18" t="n">
-        <v>5703</v>
+        <v>4823</v>
       </c>
       <c r="AP27" s="18" t="n">
-        <v>4823</v>
+        <v>5894</v>
       </c>
       <c r="AQ27" s="18" t="n">
-        <v>5894</v>
+        <v>6672</v>
       </c>
       <c r="AR27" s="18" t="n">
-        <v>6672</v>
+        <v>5948</v>
       </c>
       <c r="AS27" s="18" t="n">
-        <v>5948</v>
+        <v>6933</v>
       </c>
       <c r="AT27" s="18" t="n">
-        <v>6933</v>
+        <v>5947</v>
       </c>
       <c r="AU27" s="18" t="n">
-        <v>5947</v>
+        <v>6100</v>
       </c>
       <c r="AV27" s="18" t="n">
-        <v>6100</v>
+        <v>6424</v>
       </c>
       <c r="AW27" s="18" t="n">
-        <v>6424</v>
+        <v>5278</v>
       </c>
       <c r="AX27" s="18" t="n">
-        <v>5278</v>
+        <v>5777</v>
       </c>
       <c r="AY27" s="18" t="n">
-        <v>5777</v>
+        <v>4972</v>
       </c>
       <c r="AZ27" s="18" t="n">
-        <v>4972</v>
+        <v>6059</v>
       </c>
       <c r="BA27" s="18" t="n">
-        <v>6059</v>
+        <v>5393</v>
       </c>
       <c r="BB27" s="18" t="n">
-        <v>5393</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,11 +6238,11 @@
       <c r="Y34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z34" s="13" t="s">
-        <v>58</v>
+      <c r="Z34" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="AA34" s="13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="13" t="n">
         <v>0</v>
@@ -6253,11 +6253,11 @@
       <c r="AD34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="13" t="s">
-        <v>58</v>
+      <c r="AE34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG34" s="13" t="n">
         <v>0</v>
@@ -6272,19 +6272,19 @@
         <v>0</v>
       </c>
       <c r="AK34" s="13" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AL34" s="13" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AN34" s="13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO34" s="13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="13" t="n">
         <v>0</v>
@@ -6310,14 +6310,14 @@
       <c r="AW34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX34" s="13" t="n">
-        <v>0</v>
+      <c r="AX34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ34" s="13" t="s">
-        <v>58</v>
+      <c r="AZ34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA34" s="13" t="n">
         <v>0</v>
@@ -6397,92 +6397,92 @@
       <c r="Y35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z35" s="16" t="s">
-        <v>58</v>
+      <c r="Z35" s="16" t="n">
+        <v>49</v>
       </c>
       <c r="AA35" s="16" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AB35" s="16" t="n">
-        <v>68</v>
+        <v>405</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>509</v>
+        <v>351</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>351</v>
+        <v>191</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>191</v>
+        <v>1142</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>1142</v>
+        <v>657</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>682</v>
+        <v>957</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>957</v>
+        <v>906</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>906</v>
+        <v>750</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>750</v>
+        <v>1547</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>1547</v>
+        <v>2018</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>2018</v>
+        <v>3857</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>3857</v>
+        <v>3847</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>3847</v>
+        <v>1263</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>1263</v>
+        <v>3017</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>3017</v>
+        <v>2873</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>2873</v>
+        <v>2434</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>2434</v>
+        <v>2188</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>2188</v>
+        <v>1722</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>1722</v>
+        <v>1192</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>1192</v>
+        <v>2003</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>2003</v>
+        <v>2326</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>2326</v>
+        <v>1386</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>1386</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6556,92 +6556,92 @@
       <c r="Y36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="13" t="s">
-        <v>58</v>
+      <c r="Z36" s="13" t="n">
+        <v>1485</v>
       </c>
       <c r="AA36" s="13" t="n">
-        <v>1485</v>
+        <v>1872</v>
       </c>
       <c r="AB36" s="13" t="n">
-        <v>1872</v>
+        <v>1755</v>
       </c>
       <c r="AC36" s="13" t="n">
-        <v>1755</v>
+        <v>1851</v>
       </c>
       <c r="AD36" s="13" t="n">
-        <v>1851</v>
+        <v>1563</v>
       </c>
       <c r="AE36" s="13" t="n">
-        <v>1563</v>
+        <v>2010</v>
       </c>
       <c r="AF36" s="13" t="n">
-        <v>2010</v>
+        <v>656</v>
       </c>
       <c r="AG36" s="13" t="n">
-        <v>656</v>
+        <v>1027</v>
       </c>
       <c r="AH36" s="13" t="n">
-        <v>1027</v>
+        <v>1410</v>
       </c>
       <c r="AI36" s="13" t="n">
-        <v>1410</v>
+        <v>2493</v>
       </c>
       <c r="AJ36" s="13" t="n">
-        <v>2493</v>
+        <v>1856</v>
       </c>
       <c r="AK36" s="13" t="n">
-        <v>1856</v>
+        <v>2402</v>
       </c>
       <c r="AL36" s="13" t="n">
-        <v>2402</v>
+        <v>1153</v>
       </c>
       <c r="AM36" s="13" t="n">
-        <v>1153</v>
+        <v>2238</v>
       </c>
       <c r="AN36" s="13" t="n">
-        <v>2238</v>
+        <v>1960</v>
       </c>
       <c r="AO36" s="13" t="n">
-        <v>1960</v>
+        <v>1808</v>
       </c>
       <c r="AP36" s="13" t="n">
-        <v>1808</v>
+        <v>2291</v>
       </c>
       <c r="AQ36" s="13" t="n">
-        <v>2291</v>
+        <v>1898</v>
       </c>
       <c r="AR36" s="13" t="n">
-        <v>1898</v>
+        <v>1865</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>1865</v>
+        <v>2459</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>2459</v>
+        <v>2379</v>
       </c>
       <c r="AU36" s="13" t="n">
-        <v>2379</v>
+        <v>1933</v>
       </c>
       <c r="AV36" s="13" t="n">
-        <v>1933</v>
+        <v>1596</v>
       </c>
       <c r="AW36" s="13" t="n">
-        <v>1596</v>
+        <v>1702</v>
       </c>
       <c r="AX36" s="13" t="n">
-        <v>1702</v>
+        <v>1666</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>1666</v>
+        <v>1623</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>1623</v>
+        <v>1904</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>1904</v>
+        <v>1692</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>1692</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,92 +6715,92 @@
       <c r="Y37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="16" t="s">
-        <v>58</v>
+      <c r="Z37" s="16" t="n">
+        <v>3311</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>3311</v>
+        <v>3611</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>3611</v>
+        <v>2884</v>
       </c>
       <c r="AC37" s="16" t="n">
-        <v>2884</v>
+        <v>2681</v>
       </c>
       <c r="AD37" s="16" t="n">
-        <v>2681</v>
+        <v>1483</v>
       </c>
       <c r="AE37" s="16" t="n">
-        <v>1483</v>
+        <v>3188</v>
       </c>
       <c r="AF37" s="16" t="n">
-        <v>3188</v>
+        <v>2708</v>
       </c>
       <c r="AG37" s="16" t="n">
-        <v>2708</v>
+        <v>2559</v>
       </c>
       <c r="AH37" s="16" t="n">
-        <v>2559</v>
+        <v>1936</v>
       </c>
       <c r="AI37" s="16" t="n">
-        <v>1936</v>
+        <v>2170</v>
       </c>
       <c r="AJ37" s="16" t="n">
-        <v>2170</v>
+        <v>2810</v>
       </c>
       <c r="AK37" s="16" t="n">
-        <v>2810</v>
+        <v>2300</v>
       </c>
       <c r="AL37" s="16" t="n">
-        <v>2300</v>
+        <v>1626</v>
       </c>
       <c r="AM37" s="16" t="n">
-        <v>1626</v>
+        <v>1860</v>
       </c>
       <c r="AN37" s="16" t="n">
-        <v>1860</v>
+        <v>1086</v>
       </c>
       <c r="AO37" s="16" t="n">
-        <v>1086</v>
+        <v>66</v>
       </c>
       <c r="AP37" s="16" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="AQ37" s="16" t="n">
-        <v>16</v>
+        <v>648</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>648</v>
+        <v>1548</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>1548</v>
+        <v>482</v>
       </c>
       <c r="AT37" s="16" t="n">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="AU37" s="16" t="n">
-        <v>468</v>
+        <v>310</v>
       </c>
       <c r="AV37" s="16" t="n">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="AW37" s="16" t="n">
-        <v>25</v>
+        <v>716</v>
       </c>
       <c r="AX37" s="16" t="n">
-        <v>716</v>
+        <v>2542</v>
       </c>
       <c r="AY37" s="16" t="n">
-        <v>2542</v>
+        <v>1205</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>1205</v>
+        <v>1137</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>1137</v>
+        <v>558</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6883,83 +6883,83 @@
       <c r="AB38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC38" s="13" t="s">
-        <v>58</v>
+      <c r="AC38" s="13" t="n">
+        <v>540</v>
       </c>
       <c r="AD38" s="13" t="n">
-        <v>540</v>
+        <v>1311</v>
       </c>
       <c r="AE38" s="13" t="n">
-        <v>1311</v>
+        <v>557</v>
       </c>
       <c r="AF38" s="13" t="n">
-        <v>557</v>
+        <v>22</v>
       </c>
       <c r="AG38" s="13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="13" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AI38" s="13" t="n">
-        <v>335</v>
+        <v>69</v>
       </c>
       <c r="AJ38" s="13" t="n">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="AK38" s="13" t="n">
-        <v>303</v>
+        <v>816</v>
       </c>
       <c r="AL38" s="13" t="n">
-        <v>816</v>
+        <v>397</v>
       </c>
       <c r="AM38" s="13" t="n">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="AN38" s="13" t="n">
-        <v>352</v>
+        <v>1074</v>
       </c>
       <c r="AO38" s="13" t="n">
-        <v>1074</v>
+        <v>410</v>
       </c>
       <c r="AP38" s="13" t="n">
-        <v>410</v>
+        <v>29</v>
       </c>
       <c r="AQ38" s="13" t="n">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>226</v>
+        <v>996</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>996</v>
+        <v>760</v>
       </c>
       <c r="AT38" s="13" t="n">
-        <v>760</v>
+        <v>395</v>
       </c>
       <c r="AU38" s="13" t="n">
-        <v>395</v>
+        <v>1564</v>
       </c>
       <c r="AV38" s="13" t="n">
-        <v>1564</v>
+        <v>1350</v>
       </c>
       <c r="AW38" s="13" t="n">
-        <v>1350</v>
+        <v>1308</v>
       </c>
       <c r="AX38" s="13" t="n">
-        <v>1308</v>
+        <v>172</v>
       </c>
       <c r="AY38" s="13" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AZ38" s="13" t="n">
-        <v>180</v>
+        <v>1264</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>1264</v>
+        <v>1749</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>1749</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,11 +7033,11 @@
       <c r="Y39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="16" t="s">
-        <v>58</v>
+      <c r="Z39" s="16" t="n">
+        <v>200</v>
       </c>
       <c r="AA39" s="16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="16" t="n">
         <v>0</v>
@@ -7048,11 +7048,11 @@
       <c r="AD39" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="16" t="s">
-        <v>58</v>
+      <c r="AE39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF39" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG39" s="16" t="n">
         <v>0</v>
@@ -7066,11 +7066,11 @@
       <c r="AJ39" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AK39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="16" t="s">
-        <v>58</v>
+      <c r="AK39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL39" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AM39" s="16" t="n">
         <v>0</v>
@@ -7105,8 +7105,8 @@
       <c r="AW39" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX39" s="16" t="n">
-        <v>0</v>
+      <c r="AX39" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY39" s="16" t="s">
         <v>58</v>
@@ -7191,91 +7191,91 @@
         <v>0</v>
       </c>
       <c r="Z40" s="18" t="n">
-        <v>0</v>
+        <v>5050</v>
       </c>
       <c r="AA40" s="18" t="n">
-        <v>5050</v>
+        <v>5551</v>
       </c>
       <c r="AB40" s="18" t="n">
-        <v>5551</v>
+        <v>5044</v>
       </c>
       <c r="AC40" s="18" t="n">
-        <v>5044</v>
+        <v>5450</v>
       </c>
       <c r="AD40" s="18" t="n">
-        <v>5450</v>
+        <v>4357</v>
       </c>
       <c r="AE40" s="18" t="n">
-        <v>4357</v>
+        <v>6264</v>
       </c>
       <c r="AF40" s="18" t="n">
-        <v>6264</v>
+        <v>3737</v>
       </c>
       <c r="AG40" s="18" t="n">
-        <v>3737</v>
+        <v>3777</v>
       </c>
       <c r="AH40" s="18" t="n">
-        <v>3777</v>
+        <v>4823</v>
       </c>
       <c r="AI40" s="18" t="n">
-        <v>4823</v>
+        <v>5389</v>
       </c>
       <c r="AJ40" s="18" t="n">
-        <v>5389</v>
+        <v>5651</v>
       </c>
       <c r="AK40" s="18" t="n">
-        <v>5651</v>
+        <v>6531</v>
       </c>
       <c r="AL40" s="18" t="n">
-        <v>6531</v>
+        <v>4082</v>
       </c>
       <c r="AM40" s="18" t="n">
-        <v>4082</v>
+        <v>5200</v>
       </c>
       <c r="AN40" s="18" t="n">
-        <v>5200</v>
+        <v>5685</v>
       </c>
       <c r="AO40" s="18" t="n">
-        <v>5685</v>
+        <v>4302</v>
       </c>
       <c r="AP40" s="18" t="n">
-        <v>4302</v>
+        <v>6193</v>
       </c>
       <c r="AQ40" s="18" t="n">
-        <v>6193</v>
+        <v>6619</v>
       </c>
       <c r="AR40" s="18" t="n">
-        <v>6619</v>
+        <v>5672</v>
       </c>
       <c r="AS40" s="18" t="n">
-        <v>5672</v>
+        <v>6718</v>
       </c>
       <c r="AT40" s="18" t="n">
-        <v>6718</v>
+        <v>6115</v>
       </c>
       <c r="AU40" s="18" t="n">
-        <v>6115</v>
+        <v>6241</v>
       </c>
       <c r="AV40" s="18" t="n">
-        <v>6241</v>
+        <v>5159</v>
       </c>
       <c r="AW40" s="18" t="n">
-        <v>5159</v>
+        <v>5448</v>
       </c>
       <c r="AX40" s="18" t="n">
-        <v>5448</v>
+        <v>5572</v>
       </c>
       <c r="AY40" s="18" t="n">
-        <v>5572</v>
+        <v>5011</v>
       </c>
       <c r="AZ40" s="18" t="n">
-        <v>5011</v>
+        <v>6631</v>
       </c>
       <c r="BA40" s="18" t="n">
-        <v>6631</v>
+        <v>5385</v>
       </c>
       <c r="BB40" s="18" t="n">
-        <v>5385</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,8 +7406,8 @@
       <c r="Y42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z42" s="13" t="s">
-        <v>58</v>
+      <c r="Z42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA42" s="13" t="n">
         <v>0</v>
@@ -7421,11 +7421,11 @@
       <c r="AD42" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="13" t="s">
-        <v>58</v>
+      <c r="AE42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG42" s="13" t="n">
         <v>0</v>
@@ -7439,8 +7439,8 @@
       <c r="AJ42" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK42" s="13" t="n">
-        <v>0</v>
+      <c r="AK42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL42" s="13" t="s">
         <v>58</v>
@@ -7565,50 +7565,50 @@
       <c r="Y43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="16" t="s">
-        <v>58</v>
+      <c r="Z43" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AA43" s="16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB43" s="16" t="n">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="AC43" s="16" t="n">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="AD43" s="16" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="16" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="AF43" s="16" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG43" s="16" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AH43" s="16" t="n">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="AI43" s="16" t="n">
-        <v>335</v>
+        <v>47</v>
       </c>
       <c r="AJ43" s="16" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="16" t="n">
         <v>48</v>
       </c>
+      <c r="AL43" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AM43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN43" s="16" t="s">
-        <v>58</v>
+      <c r="AN43" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO43" s="16" t="n">
         <v>0</v>
@@ -7637,8 +7637,8 @@
       <c r="AW43" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX43" s="16" t="n">
-        <v>0</v>
+      <c r="AX43" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY43" s="16" t="s">
         <v>58</v>
@@ -7724,8 +7724,8 @@
       <c r="Y44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="13" t="s">
-        <v>58</v>
+      <c r="Z44" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA44" s="13" t="n">
         <v>0</v>
@@ -7739,77 +7739,77 @@
       <c r="AD44" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="13" t="s">
-        <v>58</v>
+      <c r="AE44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF44" s="13" t="n">
+        <v>24</v>
       </c>
       <c r="AG44" s="13" t="n">
+        <v>91</v>
+      </c>
+      <c r="AH44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="AH44" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AI44" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL44" s="13" t="n">
+        <v>561</v>
+      </c>
+      <c r="AM44" s="13" t="n">
+        <v>121</v>
+      </c>
+      <c r="AN44" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="AO44" s="13" t="n">
+        <v>122</v>
+      </c>
+      <c r="AP44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AR44" s="13" t="n">
+        <v>69</v>
+      </c>
+      <c r="AS44" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="AK44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM44" s="13" t="n">
-        <v>561</v>
-      </c>
-      <c r="AN44" s="13" t="n">
-        <v>121</v>
-      </c>
-      <c r="AO44" s="13" t="n">
-        <v>96</v>
-      </c>
-      <c r="AP44" s="13" t="n">
-        <v>122</v>
-      </c>
-      <c r="AQ44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AS44" s="13" t="n">
+      <c r="AT44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW44" s="13" t="n">
         <v>69</v>
       </c>
-      <c r="AT44" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="13" t="n">
-        <v>45</v>
-      </c>
       <c r="AX44" s="13" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="BA44" s="13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BB44" s="13" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,92 +7883,92 @@
       <c r="Y45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="16" t="s">
-        <v>58</v>
+      <c r="Z45" s="16" t="n">
+        <v>72</v>
       </c>
       <c r="AA45" s="16" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC45" s="16" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AD45" s="16" t="n">
-        <v>433</v>
+        <v>294</v>
       </c>
       <c r="AE45" s="16" t="n">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="AF45" s="16" t="n">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="AG45" s="16" t="n">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="AH45" s="16" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI45" s="16" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AJ45" s="16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK45" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL45" s="16" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM45" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="AN45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="16" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS45" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AT45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="AK45" s="16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL45" s="16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM45" s="16" t="n">
-        <v>68</v>
-      </c>
-      <c r="AN45" s="16" t="n">
-        <v>136</v>
-      </c>
-      <c r="AO45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="16" t="n">
-        <v>94</v>
-      </c>
-      <c r="AT45" s="16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AU45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ45" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="BA45" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="BA45" s="16" t="n">
-        <v>93</v>
-      </c>
       <c r="BB45" s="16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8041,91 +8041,91 @@
         <v>0</v>
       </c>
       <c r="Z46" s="18" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AA46" s="18" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="AB46" s="18" t="n">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="AC46" s="18" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="AD46" s="18" t="n">
-        <v>625</v>
+        <v>294</v>
       </c>
       <c r="AE46" s="18" t="n">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="AF46" s="18" t="n">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="AG46" s="18" t="n">
-        <v>310</v>
+        <v>456</v>
       </c>
       <c r="AH46" s="18" t="n">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="AI46" s="18" t="n">
-        <v>425</v>
+        <v>94</v>
       </c>
       <c r="AJ46" s="18" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="AK46" s="18" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AL46" s="18" t="n">
-        <v>79</v>
+        <v>629</v>
       </c>
       <c r="AM46" s="18" t="n">
-        <v>629</v>
+        <v>257</v>
       </c>
       <c r="AN46" s="18" t="n">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="AO46" s="18" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AP46" s="18" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="18" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AR46" s="18" t="n">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="AS46" s="18" t="n">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="AT46" s="18" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV46" s="18" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AW46" s="18" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AX46" s="18" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="18" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AZ46" s="18" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BA46" s="18" t="n">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="BB46" s="18" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8256,8 +8256,8 @@
       <c r="Y48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z48" s="13" t="s">
-        <v>58</v>
+      <c r="Z48" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA48" s="13" t="n">
         <v>0</v>
@@ -8271,26 +8271,26 @@
       <c r="AD48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE48" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="13" t="s">
-        <v>58</v>
+      <c r="AE48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF48" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH48" s="13" t="n">
-        <v>0</v>
+      <c r="AH48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK48" s="13" t="n">
-        <v>0</v>
+      <c r="AJ48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL48" s="13" t="s">
         <v>58</v>
@@ -8413,8 +8413,8 @@
       <c r="Y49" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="20" t="s">
-        <v>58</v>
+      <c r="Z49" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AA49" s="20" t="n">
         <v>0</v>
@@ -8638,32 +8638,32 @@
       <c r="AB51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC51" s="13" t="s">
-        <v>58</v>
+      <c r="AC51" s="13" t="n">
+        <v>-4</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AE51" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF51" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG51" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH51" s="13" t="n">
-        <v>0</v>
+      <c r="AH51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK51" s="13" t="n">
-        <v>0</v>
+      <c r="AJ51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL51" s="13" t="s">
         <v>58</v>
@@ -8674,23 +8674,23 @@
       <c r="AN51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO51" s="13" t="s">
-        <v>58</v>
+      <c r="AO51" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP51" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="13" t="n">
         <v>-44</v>
       </c>
-      <c r="AS51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT51" s="13" t="n">
-        <v>0</v>
+      <c r="AR51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU51" s="13" t="s">
         <v>58</v>
@@ -8698,11 +8698,11 @@
       <c r="AV51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX51" s="13" t="n">
-        <v>0</v>
+      <c r="AW51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY51" s="13" t="s">
         <v>58</v>
@@ -8815,14 +8815,14 @@
       <c r="AH52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI52" s="16" t="s">
-        <v>58</v>
+      <c r="AI52" s="16" t="n">
+        <v>-44</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>-44</v>
-      </c>
-      <c r="AK52" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AL52" s="16" t="s">
         <v>58</v>
@@ -8857,11 +8857,11 @@
       <c r="AV52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AW52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX52" s="16" t="n">
+      <c r="AW52" s="16" t="n">
         <v>-36</v>
+      </c>
+      <c r="AX52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY52" s="16" t="s">
         <v>58</v>
@@ -8980,11 +8980,11 @@
       <c r="AJ53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL53" s="13" t="n">
-        <v>0</v>
+      <c r="AK53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM53" s="13" t="s">
         <v>58</v>
@@ -9004,11 +9004,11 @@
       <c r="AR53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT53" s="13" t="n">
-        <v>0</v>
+      <c r="AS53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU53" s="13" t="s">
         <v>58</v>
@@ -9175,23 +9175,23 @@
       <c r="AV54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AW54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX54" s="16" t="n">
+      <c r="AW54" s="16" t="n">
         <v>-9</v>
       </c>
+      <c r="AX54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AY54" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AZ54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB54" s="16" t="n">
+      <c r="BA54" s="16" t="n">
         <v>-43</v>
+      </c>
+      <c r="BB54" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9263,8 +9263,8 @@
       <c r="Y55" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="18" t="s">
-        <v>58</v>
+      <c r="Z55" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AA55" s="18" t="n">
         <v>0</v>
@@ -9273,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="18" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AD55" s="18" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="18" t="n">
         <v>0</v>
@@ -9291,34 +9291,34 @@
         <v>0</v>
       </c>
       <c r="AI55" s="18" t="n">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="AJ55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="18" t="n">
         <v>-44</v>
       </c>
-      <c r="AK55" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP55" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ55" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="AR55" s="18" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="18" t="n">
         <v>0</v>
@@ -9333,10 +9333,10 @@
         <v>0</v>
       </c>
       <c r="AW55" s="18" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="AX55" s="18" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="18" t="n">
         <v>0</v>
@@ -9345,10 +9345,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="18" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="BB55" s="18" t="n">
-        <v>-43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9421,91 +9421,91 @@
         <v>0</v>
       </c>
       <c r="Z56" s="20" t="n">
-        <v>0</v>
+        <v>5122</v>
       </c>
       <c r="AA56" s="20" t="n">
-        <v>5122</v>
+        <v>5575</v>
       </c>
       <c r="AB56" s="20" t="n">
-        <v>5575</v>
+        <v>5427</v>
       </c>
       <c r="AC56" s="20" t="n">
-        <v>5427</v>
+        <v>6071</v>
       </c>
       <c r="AD56" s="20" t="n">
-        <v>6071</v>
+        <v>4651</v>
       </c>
       <c r="AE56" s="20" t="n">
-        <v>4651</v>
+        <v>6645</v>
       </c>
       <c r="AF56" s="20" t="n">
-        <v>6645</v>
+        <v>4047</v>
       </c>
       <c r="AG56" s="20" t="n">
-        <v>4047</v>
+        <v>4233</v>
       </c>
       <c r="AH56" s="20" t="n">
-        <v>4233</v>
+        <v>5248</v>
       </c>
       <c r="AI56" s="20" t="n">
-        <v>5248</v>
+        <v>5439</v>
       </c>
       <c r="AJ56" s="20" t="n">
-        <v>5439</v>
+        <v>5718</v>
       </c>
       <c r="AK56" s="20" t="n">
-        <v>5718</v>
+        <v>6610</v>
       </c>
       <c r="AL56" s="20" t="n">
-        <v>6610</v>
+        <v>4711</v>
       </c>
       <c r="AM56" s="20" t="n">
-        <v>4711</v>
+        <v>5457</v>
       </c>
       <c r="AN56" s="20" t="n">
-        <v>5457</v>
+        <v>5781</v>
       </c>
       <c r="AO56" s="20" t="n">
-        <v>5781</v>
+        <v>4424</v>
       </c>
       <c r="AP56" s="20" t="n">
-        <v>4424</v>
+        <v>6193</v>
       </c>
       <c r="AQ56" s="20" t="n">
-        <v>6193</v>
+        <v>6623</v>
       </c>
       <c r="AR56" s="20" t="n">
-        <v>6623</v>
+        <v>5835</v>
       </c>
       <c r="AS56" s="20" t="n">
-        <v>5835</v>
+        <v>6789</v>
       </c>
       <c r="AT56" s="20" t="n">
-        <v>6789</v>
+        <v>6115</v>
       </c>
       <c r="AU56" s="20" t="n">
-        <v>6115</v>
+        <v>6241</v>
       </c>
       <c r="AV56" s="20" t="n">
-        <v>6241</v>
+        <v>5204</v>
       </c>
       <c r="AW56" s="20" t="n">
-        <v>5204</v>
+        <v>5472</v>
       </c>
       <c r="AX56" s="20" t="n">
-        <v>5472</v>
+        <v>5572</v>
       </c>
       <c r="AY56" s="20" t="n">
-        <v>5572</v>
+        <v>5148</v>
       </c>
       <c r="AZ56" s="20" t="n">
-        <v>5148</v>
+        <v>6770</v>
       </c>
       <c r="BA56" s="20" t="n">
-        <v>6770</v>
+        <v>5412</v>
       </c>
       <c r="BB56" s="20" t="n">
-        <v>5412</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10013,11 +10013,11 @@
       <c r="Y63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="13" t="s">
-        <v>58</v>
+      <c r="Z63" s="13" t="n">
+        <v>561</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="13" t="n">
         <v>0</v>
@@ -10047,19 +10047,19 @@
         <v>0</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>0</v>
+        <v>199757</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>199757</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="13" t="n">
         <v>0</v>
@@ -10085,14 +10085,14 @@
       <c r="AW63" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX63" s="13" t="n">
-        <v>0</v>
+      <c r="AX63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ63" s="13" t="s">
-        <v>58</v>
+      <c r="AZ63" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA63" s="13" t="n">
         <v>0</v>
@@ -10172,92 +10172,92 @@
       <c r="Y64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z64" s="16" t="s">
-        <v>58</v>
+      <c r="Z64" s="16" t="n">
+        <v>5121</v>
       </c>
       <c r="AA64" s="16" t="n">
-        <v>5121</v>
+        <v>7286</v>
       </c>
       <c r="AB64" s="16" t="n">
-        <v>7286</v>
+        <v>45071</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>45071</v>
+        <v>39178</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>39178</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="16" t="n">
-        <v>0</v>
+        <v>60935</v>
       </c>
       <c r="AF64" s="16" t="n">
-        <v>60935</v>
+        <v>50834</v>
       </c>
       <c r="AG64" s="16" t="n">
-        <v>50834</v>
+        <v>28284</v>
       </c>
       <c r="AH64" s="16" t="n">
-        <v>28284</v>
+        <v>158244</v>
       </c>
       <c r="AI64" s="16" t="n">
-        <v>158244</v>
+        <v>96798</v>
       </c>
       <c r="AJ64" s="16" t="n">
-        <v>96798</v>
+        <v>98682</v>
       </c>
       <c r="AK64" s="16" t="n">
-        <v>98682</v>
+        <v>120186</v>
       </c>
       <c r="AL64" s="16" t="n">
-        <v>120186</v>
+        <v>125110</v>
       </c>
       <c r="AM64" s="16" t="n">
-        <v>125110</v>
+        <v>132518</v>
       </c>
       <c r="AN64" s="16" t="n">
-        <v>132518</v>
+        <v>287900</v>
       </c>
       <c r="AO64" s="16" t="n">
-        <v>287900</v>
+        <v>389698</v>
       </c>
       <c r="AP64" s="16" t="n">
-        <v>389698</v>
+        <v>781590</v>
       </c>
       <c r="AQ64" s="16" t="n">
-        <v>781590</v>
+        <v>690849</v>
       </c>
       <c r="AR64" s="16" t="n">
-        <v>690849</v>
+        <v>274518</v>
       </c>
       <c r="AS64" s="16" t="n">
-        <v>274518</v>
+        <v>520310</v>
       </c>
       <c r="AT64" s="16" t="n">
-        <v>520310</v>
+        <v>559973</v>
       </c>
       <c r="AU64" s="16" t="n">
-        <v>559973</v>
+        <v>526489</v>
       </c>
       <c r="AV64" s="16" t="n">
-        <v>526489</v>
+        <v>477996</v>
       </c>
       <c r="AW64" s="16" t="n">
-        <v>477996</v>
+        <v>1255210</v>
       </c>
       <c r="AX64" s="16" t="n">
-        <v>1255210</v>
+        <v>243870</v>
       </c>
       <c r="AY64" s="16" t="n">
-        <v>243870</v>
+        <v>395828</v>
       </c>
       <c r="AZ64" s="16" t="n">
-        <v>395828</v>
+        <v>498284</v>
       </c>
       <c r="BA64" s="16" t="n">
-        <v>498284</v>
+        <v>288191</v>
       </c>
       <c r="BB64" s="16" t="n">
-        <v>288191</v>
+        <v>627647</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10331,92 +10331,92 @@
       <c r="Y65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="13" t="s">
-        <v>58</v>
+      <c r="Z65" s="13" t="n">
+        <v>163551</v>
       </c>
       <c r="AA65" s="13" t="n">
-        <v>163551</v>
+        <v>213713</v>
       </c>
       <c r="AB65" s="13" t="n">
-        <v>213713</v>
+        <v>212679</v>
       </c>
       <c r="AC65" s="13" t="n">
-        <v>212679</v>
+        <v>232674</v>
       </c>
       <c r="AD65" s="13" t="n">
-        <v>232674</v>
+        <v>204790</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>204790</v>
+        <v>307721</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>307721</v>
+        <v>101747</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>101747</v>
+        <v>139253</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>139253</v>
+        <v>170126</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>170126</v>
+        <v>292392</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>292392</v>
+        <v>214004</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>214004</v>
+        <v>294092</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>294092</v>
+        <v>152305</v>
       </c>
       <c r="AM65" s="13" t="n">
-        <v>152305</v>
+        <v>301013</v>
       </c>
       <c r="AN65" s="13" t="n">
-        <v>301013</v>
+        <v>284380</v>
       </c>
       <c r="AO65" s="13" t="n">
-        <v>284380</v>
+        <v>276296</v>
       </c>
       <c r="AP65" s="13" t="n">
-        <v>276296</v>
+        <v>368233</v>
       </c>
       <c r="AQ65" s="13" t="n">
-        <v>368233</v>
+        <v>309633</v>
       </c>
       <c r="AR65" s="13" t="n">
-        <v>309633</v>
+        <v>312750</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>312750</v>
+        <v>417139</v>
       </c>
       <c r="AT65" s="13" t="n">
-        <v>417139</v>
+        <v>412729</v>
       </c>
       <c r="AU65" s="13" t="n">
-        <v>412729</v>
+        <v>333044</v>
       </c>
       <c r="AV65" s="13" t="n">
-        <v>333044</v>
+        <v>270892</v>
       </c>
       <c r="AW65" s="13" t="n">
-        <v>270892</v>
+        <v>265473</v>
       </c>
       <c r="AX65" s="13" t="n">
-        <v>265473</v>
+        <v>264431</v>
       </c>
       <c r="AY65" s="13" t="n">
-        <v>264431</v>
+        <v>258689</v>
       </c>
       <c r="AZ65" s="13" t="n">
-        <v>258689</v>
+        <v>301276</v>
       </c>
       <c r="BA65" s="13" t="n">
-        <v>301276</v>
+        <v>268847</v>
       </c>
       <c r="BB65" s="13" t="n">
-        <v>268847</v>
+        <v>285730</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10490,92 +10490,92 @@
       <c r="Y66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z66" s="16" t="s">
-        <v>58</v>
+      <c r="Z66" s="16" t="n">
+        <v>520677</v>
       </c>
       <c r="AA66" s="16" t="n">
-        <v>520677</v>
+        <v>583823</v>
       </c>
       <c r="AB66" s="16" t="n">
-        <v>583823</v>
+        <v>459613</v>
       </c>
       <c r="AC66" s="16" t="n">
-        <v>459613</v>
+        <v>410172</v>
       </c>
       <c r="AD66" s="16" t="n">
-        <v>410172</v>
+        <v>288590</v>
       </c>
       <c r="AE66" s="16" t="n">
-        <v>288590</v>
+        <v>631482</v>
       </c>
       <c r="AF66" s="16" t="n">
-        <v>631482</v>
+        <v>503476</v>
       </c>
       <c r="AG66" s="16" t="n">
-        <v>503476</v>
+        <v>492912</v>
       </c>
       <c r="AH66" s="16" t="n">
-        <v>492912</v>
+        <v>358036</v>
       </c>
       <c r="AI66" s="16" t="n">
-        <v>358036</v>
+        <v>475603</v>
       </c>
       <c r="AJ66" s="16" t="n">
-        <v>475603</v>
+        <v>533259</v>
       </c>
       <c r="AK66" s="16" t="n">
-        <v>533259</v>
+        <v>518885</v>
       </c>
       <c r="AL66" s="16" t="n">
-        <v>518885</v>
+        <v>387524</v>
       </c>
       <c r="AM66" s="16" t="n">
-        <v>387524</v>
+        <v>447439</v>
       </c>
       <c r="AN66" s="16" t="n">
-        <v>447439</v>
+        <v>259769</v>
       </c>
       <c r="AO66" s="16" t="n">
-        <v>259769</v>
+        <v>15362</v>
       </c>
       <c r="AP66" s="16" t="n">
-        <v>15362</v>
+        <v>3800</v>
       </c>
       <c r="AQ66" s="16" t="n">
-        <v>3800</v>
+        <v>133557</v>
       </c>
       <c r="AR66" s="16" t="n">
-        <v>133557</v>
+        <v>402063</v>
       </c>
       <c r="AS66" s="16" t="n">
-        <v>402063</v>
+        <v>137555</v>
       </c>
       <c r="AT66" s="16" t="n">
-        <v>137555</v>
+        <v>105154</v>
       </c>
       <c r="AU66" s="16" t="n">
-        <v>105154</v>
+        <v>74107</v>
       </c>
       <c r="AV66" s="16" t="n">
-        <v>74107</v>
+        <v>4880</v>
       </c>
       <c r="AW66" s="16" t="n">
-        <v>4880</v>
+        <v>189712</v>
       </c>
       <c r="AX66" s="16" t="n">
-        <v>189712</v>
+        <v>627112</v>
       </c>
       <c r="AY66" s="16" t="n">
-        <v>627112</v>
+        <v>313237</v>
       </c>
       <c r="AZ66" s="16" t="n">
-        <v>313237</v>
+        <v>295918</v>
       </c>
       <c r="BA66" s="16" t="n">
-        <v>295918</v>
+        <v>151703</v>
       </c>
       <c r="BB66" s="16" t="n">
-        <v>151703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10658,83 +10658,83 @@
       <c r="AB67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC67" s="13" t="s">
-        <v>58</v>
+      <c r="AC67" s="13" t="n">
+        <v>82164</v>
       </c>
       <c r="AD67" s="13" t="n">
-        <v>82164</v>
+        <v>217132</v>
       </c>
       <c r="AE67" s="13" t="n">
-        <v>217132</v>
+        <v>106240</v>
       </c>
       <c r="AF67" s="13" t="n">
-        <v>106240</v>
+        <v>3985</v>
       </c>
       <c r="AG67" s="13" t="n">
-        <v>3985</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="13" t="n">
-        <v>0</v>
+        <v>62885</v>
       </c>
       <c r="AI67" s="13" t="n">
-        <v>62885</v>
+        <v>12846</v>
       </c>
       <c r="AJ67" s="13" t="n">
-        <v>12846</v>
+        <v>55555</v>
       </c>
       <c r="AK67" s="13" t="n">
-        <v>55555</v>
+        <v>157315</v>
       </c>
       <c r="AL67" s="13" t="n">
-        <v>157315</v>
+        <v>80442</v>
       </c>
       <c r="AM67" s="13" t="n">
-        <v>80442</v>
+        <v>73747</v>
       </c>
       <c r="AN67" s="13" t="n">
-        <v>73747</v>
+        <v>231362</v>
       </c>
       <c r="AO67" s="13" t="n">
-        <v>231362</v>
+        <v>92364</v>
       </c>
       <c r="AP67" s="13" t="n">
-        <v>92364</v>
+        <v>7279</v>
       </c>
       <c r="AQ67" s="13" t="n">
-        <v>7279</v>
+        <v>65114</v>
       </c>
       <c r="AR67" s="13" t="n">
-        <v>65114</v>
+        <v>294629</v>
       </c>
       <c r="AS67" s="13" t="n">
-        <v>294629</v>
+        <v>232052</v>
       </c>
       <c r="AT67" s="13" t="n">
-        <v>232052</v>
+        <v>107985</v>
       </c>
       <c r="AU67" s="13" t="n">
-        <v>107985</v>
+        <v>380590</v>
       </c>
       <c r="AV67" s="13" t="n">
-        <v>380590</v>
+        <v>300538</v>
       </c>
       <c r="AW67" s="13" t="n">
-        <v>300538</v>
+        <v>277738</v>
       </c>
       <c r="AX67" s="13" t="n">
-        <v>277738</v>
+        <v>34741</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>34741</v>
+        <v>41997</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>41997</v>
+        <v>293761</v>
       </c>
       <c r="BA67" s="13" t="n">
-        <v>293761</v>
+        <v>395817</v>
       </c>
       <c r="BB67" s="13" t="n">
-        <v>395817</v>
+        <v>182610</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10808,11 +10808,11 @@
       <c r="Y68" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z68" s="16" t="s">
-        <v>58</v>
+      <c r="Z68" s="16" t="n">
+        <v>12400</v>
       </c>
       <c r="AA68" s="16" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="AB68" s="16" t="n">
         <v>0</v>
@@ -10880,8 +10880,8 @@
       <c r="AW68" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX68" s="16" t="n">
-        <v>0</v>
+      <c r="AX68" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY68" s="16" t="s">
         <v>58</v>
@@ -10966,91 +10966,91 @@
         <v>0</v>
       </c>
       <c r="Z69" s="18" t="n">
-        <v>0</v>
+        <v>702310</v>
       </c>
       <c r="AA69" s="18" t="n">
-        <v>702310</v>
+        <v>804822</v>
       </c>
       <c r="AB69" s="18" t="n">
-        <v>804822</v>
+        <v>717363</v>
       </c>
       <c r="AC69" s="18" t="n">
-        <v>717363</v>
+        <v>764188</v>
       </c>
       <c r="AD69" s="18" t="n">
-        <v>764188</v>
+        <v>710512</v>
       </c>
       <c r="AE69" s="18" t="n">
-        <v>710512</v>
+        <v>1106378</v>
       </c>
       <c r="AF69" s="18" t="n">
-        <v>1106378</v>
+        <v>660042</v>
       </c>
       <c r="AG69" s="18" t="n">
-        <v>660042</v>
+        <v>660449</v>
       </c>
       <c r="AH69" s="18" t="n">
-        <v>660449</v>
+        <v>749291</v>
       </c>
       <c r="AI69" s="18" t="n">
-        <v>749291</v>
+        <v>877639</v>
       </c>
       <c r="AJ69" s="18" t="n">
-        <v>877639</v>
+        <v>901500</v>
       </c>
       <c r="AK69" s="18" t="n">
-        <v>901500</v>
+        <v>1290235</v>
       </c>
       <c r="AL69" s="18" t="n">
-        <v>1290235</v>
+        <v>745381</v>
       </c>
       <c r="AM69" s="18" t="n">
-        <v>745381</v>
+        <v>954717</v>
       </c>
       <c r="AN69" s="18" t="n">
-        <v>954717</v>
+        <v>1090411</v>
       </c>
       <c r="AO69" s="18" t="n">
-        <v>1090411</v>
+        <v>773720</v>
       </c>
       <c r="AP69" s="18" t="n">
-        <v>773720</v>
+        <v>1160902</v>
       </c>
       <c r="AQ69" s="18" t="n">
-        <v>1160902</v>
+        <v>1199153</v>
       </c>
       <c r="AR69" s="18" t="n">
-        <v>1199153</v>
+        <v>1283960</v>
       </c>
       <c r="AS69" s="18" t="n">
-        <v>1283960</v>
+        <v>1307056</v>
       </c>
       <c r="AT69" s="18" t="n">
-        <v>1307056</v>
+        <v>1185841</v>
       </c>
       <c r="AU69" s="18" t="n">
-        <v>1185841</v>
+        <v>1314230</v>
       </c>
       <c r="AV69" s="18" t="n">
-        <v>1314230</v>
+        <v>1054306</v>
       </c>
       <c r="AW69" s="18" t="n">
-        <v>1054306</v>
+        <v>1988133</v>
       </c>
       <c r="AX69" s="18" t="n">
-        <v>1988133</v>
+        <v>1170154</v>
       </c>
       <c r="AY69" s="18" t="n">
-        <v>1170154</v>
+        <v>1009751</v>
       </c>
       <c r="AZ69" s="18" t="n">
-        <v>1009751</v>
+        <v>1389239</v>
       </c>
       <c r="BA69" s="18" t="n">
-        <v>1389239</v>
+        <v>1104558</v>
       </c>
       <c r="BB69" s="18" t="n">
-        <v>1104558</v>
+        <v>1095987</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11181,8 +11181,8 @@
       <c r="Y71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z71" s="13" t="s">
-        <v>58</v>
+      <c r="Z71" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA71" s="13" t="n">
         <v>0</v>
@@ -11217,8 +11217,8 @@
       <c r="AK71" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL71" s="13" t="n">
-        <v>0</v>
+      <c r="AL71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM71" s="13" t="s">
         <v>58</v>
@@ -11340,47 +11340,47 @@
       <c r="Y72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z72" s="16" t="s">
-        <v>58</v>
+      <c r="Z72" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AA72" s="16" t="n">
-        <v>0</v>
+        <v>2903</v>
       </c>
       <c r="AB72" s="16" t="n">
-        <v>2903</v>
+        <v>53637</v>
       </c>
       <c r="AC72" s="16" t="n">
-        <v>53637</v>
+        <v>21210</v>
       </c>
       <c r="AD72" s="16" t="n">
-        <v>21210</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="16" t="n">
-        <v>0</v>
+        <v>36016</v>
       </c>
       <c r="AF72" s="16" t="n">
-        <v>36016</v>
+        <v>39978</v>
       </c>
       <c r="AG72" s="16" t="n">
-        <v>39978</v>
+        <v>30722</v>
       </c>
       <c r="AH72" s="16" t="n">
-        <v>30722</v>
+        <v>48719</v>
       </c>
       <c r="AI72" s="16" t="n">
-        <v>48719</v>
+        <v>9894</v>
       </c>
       <c r="AJ72" s="16" t="n">
-        <v>9894</v>
+        <v>0</v>
       </c>
       <c r="AK72" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" s="16" t="n">
         <v>39723</v>
       </c>
-      <c r="AM72" s="16" t="s">
-        <v>58</v>
+      <c r="AL72" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM72" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN72" s="16" t="n">
         <v>0</v>
@@ -11412,8 +11412,8 @@
       <c r="AW72" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX72" s="16" t="n">
-        <v>0</v>
+      <c r="AX72" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY72" s="16" t="s">
         <v>58</v>
@@ -11499,8 +11499,8 @@
       <c r="Y73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z73" s="13" t="s">
-        <v>58</v>
+      <c r="Z73" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA73" s="13" t="n">
         <v>0</v>
@@ -11518,73 +11518,73 @@
         <v>0</v>
       </c>
       <c r="AF73" s="13" t="n">
-        <v>0</v>
+        <v>3450</v>
       </c>
       <c r="AG73" s="13" t="n">
-        <v>3450</v>
+        <v>12002</v>
       </c>
       <c r="AH73" s="13" t="n">
-        <v>12002</v>
+        <v>0</v>
       </c>
       <c r="AI73" s="13" t="n">
-        <v>0</v>
+        <v>2964</v>
       </c>
       <c r="AJ73" s="13" t="n">
-        <v>2964</v>
+        <v>0</v>
       </c>
       <c r="AK73" s="13" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AL73" s="13" t="n">
-        <v>82</v>
+        <v>89139</v>
       </c>
       <c r="AM73" s="13" t="n">
-        <v>89139</v>
+        <v>20395</v>
       </c>
       <c r="AN73" s="13" t="n">
-        <v>20395</v>
+        <v>15246</v>
       </c>
       <c r="AO73" s="13" t="n">
-        <v>15246</v>
+        <v>18852</v>
       </c>
       <c r="AP73" s="13" t="n">
-        <v>18852</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="13" t="n">
-        <v>0</v>
+        <v>7973</v>
       </c>
       <c r="AR73" s="13" t="n">
-        <v>7973</v>
+        <v>12018</v>
       </c>
       <c r="AS73" s="13" t="n">
-        <v>12018</v>
+        <v>4354</v>
       </c>
       <c r="AT73" s="13" t="n">
-        <v>4354</v>
+        <v>0</v>
       </c>
       <c r="AU73" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AV73" s="13" t="n">
-        <v>0</v>
+        <v>6730</v>
       </c>
       <c r="AW73" s="13" t="n">
-        <v>6730</v>
+        <v>9815</v>
       </c>
       <c r="AX73" s="13" t="n">
-        <v>9815</v>
+        <v>0</v>
       </c>
       <c r="AY73" s="13" t="n">
-        <v>0</v>
+        <v>14611</v>
       </c>
       <c r="AZ73" s="13" t="n">
-        <v>14611</v>
+        <v>5944</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>5944</v>
+        <v>5991</v>
       </c>
       <c r="BB73" s="13" t="n">
-        <v>5991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11658,50 +11658,50 @@
       <c r="Y74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z74" s="16" t="s">
-        <v>58</v>
+      <c r="Z74" s="16" t="n">
+        <v>10139</v>
       </c>
       <c r="AA74" s="16" t="n">
-        <v>10139</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC74" s="16" t="n">
-        <v>0</v>
+        <v>60456</v>
       </c>
       <c r="AD74" s="16" t="n">
-        <v>60456</v>
+        <v>42455</v>
       </c>
       <c r="AE74" s="16" t="n">
-        <v>42455</v>
+        <v>15863</v>
       </c>
       <c r="AF74" s="16" t="n">
-        <v>15863</v>
+        <v>3678</v>
       </c>
       <c r="AG74" s="16" t="n">
-        <v>3678</v>
+        <v>16657</v>
       </c>
       <c r="AH74" s="16" t="n">
-        <v>16657</v>
+        <v>17275</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>17275</v>
+        <v>4712</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>4712</v>
+        <v>13379</v>
       </c>
       <c r="AK74" s="16" t="n">
-        <v>13379</v>
+        <v>4527</v>
       </c>
       <c r="AL74" s="16" t="n">
-        <v>4527</v>
+        <v>13695</v>
       </c>
       <c r="AM74" s="16" t="n">
-        <v>13695</v>
+        <v>26560</v>
       </c>
       <c r="AN74" s="16" t="n">
-        <v>26560</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="16" t="n">
         <v>0</v>
@@ -11713,13 +11713,13 @@
         <v>0</v>
       </c>
       <c r="AR74" s="16" t="n">
-        <v>0</v>
+        <v>19492</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>19492</v>
+        <v>10246</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>10246</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="16" t="n">
         <v>0</v>
@@ -11734,16 +11734,16 @@
         <v>0</v>
       </c>
       <c r="AY74" s="16" t="n">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="AZ74" s="16" t="n">
-        <v>4484</v>
+        <v>17821</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>17821</v>
+        <v>4438</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>4438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11816,91 +11816,91 @@
         <v>0</v>
       </c>
       <c r="Z75" s="18" t="n">
-        <v>0</v>
+        <v>10139</v>
       </c>
       <c r="AA75" s="18" t="n">
-        <v>10139</v>
+        <v>2903</v>
       </c>
       <c r="AB75" s="18" t="n">
-        <v>2903</v>
+        <v>53637</v>
       </c>
       <c r="AC75" s="18" t="n">
-        <v>53637</v>
+        <v>81666</v>
       </c>
       <c r="AD75" s="18" t="n">
-        <v>81666</v>
+        <v>42455</v>
       </c>
       <c r="AE75" s="18" t="n">
-        <v>42455</v>
+        <v>51879</v>
       </c>
       <c r="AF75" s="18" t="n">
-        <v>51879</v>
+        <v>47106</v>
       </c>
       <c r="AG75" s="18" t="n">
-        <v>47106</v>
+        <v>59381</v>
       </c>
       <c r="AH75" s="18" t="n">
-        <v>59381</v>
+        <v>65994</v>
       </c>
       <c r="AI75" s="18" t="n">
-        <v>65994</v>
+        <v>17570</v>
       </c>
       <c r="AJ75" s="18" t="n">
-        <v>17570</v>
+        <v>13379</v>
       </c>
       <c r="AK75" s="18" t="n">
-        <v>13379</v>
+        <v>44332</v>
       </c>
       <c r="AL75" s="18" t="n">
-        <v>44332</v>
+        <v>102834</v>
       </c>
       <c r="AM75" s="18" t="n">
-        <v>102834</v>
+        <v>46955</v>
       </c>
       <c r="AN75" s="18" t="n">
-        <v>46955</v>
+        <v>15246</v>
       </c>
       <c r="AO75" s="18" t="n">
-        <v>15246</v>
+        <v>18852</v>
       </c>
       <c r="AP75" s="18" t="n">
-        <v>18852</v>
+        <v>0</v>
       </c>
       <c r="AQ75" s="18" t="n">
-        <v>0</v>
+        <v>7973</v>
       </c>
       <c r="AR75" s="18" t="n">
-        <v>7973</v>
+        <v>31510</v>
       </c>
       <c r="AS75" s="18" t="n">
-        <v>31510</v>
+        <v>14600</v>
       </c>
       <c r="AT75" s="18" t="n">
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AV75" s="18" t="n">
-        <v>0</v>
+        <v>6730</v>
       </c>
       <c r="AW75" s="18" t="n">
-        <v>6730</v>
+        <v>9815</v>
       </c>
       <c r="AX75" s="18" t="n">
-        <v>9815</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="18" t="n">
-        <v>0</v>
+        <v>19095</v>
       </c>
       <c r="AZ75" s="18" t="n">
-        <v>19095</v>
+        <v>23765</v>
       </c>
       <c r="BA75" s="18" t="n">
-        <v>23765</v>
+        <v>10429</v>
       </c>
       <c r="BB75" s="18" t="n">
-        <v>10429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12031,8 +12031,8 @@
       <c r="Y77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="13" t="s">
-        <v>58</v>
+      <c r="Z77" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA77" s="13" t="n">
         <v>0</v>
@@ -12067,8 +12067,8 @@
       <c r="AK77" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL77" s="13" t="n">
-        <v>0</v>
+      <c r="AL77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM77" s="13" t="s">
         <v>58</v>
@@ -12190,8 +12190,8 @@
       <c r="Y78" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="Z78" s="20" t="s">
-        <v>58</v>
+      <c r="Z78" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="AA78" s="21" t="n">
         <v>0</v>
@@ -12415,11 +12415,11 @@
       <c r="AB80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC80" s="13" t="s">
-        <v>58</v>
+      <c r="AC80" s="13" t="n">
+        <v>-441</v>
       </c>
       <c r="AD80" s="13" t="n">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="13" t="n">
         <v>0</v>
@@ -12442,8 +12442,8 @@
       <c r="AK80" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL80" s="13" t="n">
-        <v>0</v>
+      <c r="AL80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM80" s="13" t="s">
         <v>58</v>
@@ -12451,17 +12451,17 @@
       <c r="AN80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO80" s="13" t="s">
-        <v>58</v>
+      <c r="AO80" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP80" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AQ80" s="13" t="n">
-        <v>0</v>
+        <v>-11065</v>
       </c>
       <c r="AR80" s="13" t="n">
-        <v>-11065</v>
+        <v>0</v>
       </c>
       <c r="AS80" s="13" t="n">
         <v>0</v>
@@ -12478,8 +12478,8 @@
       <c r="AW80" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX80" s="13" t="n">
-        <v>0</v>
+      <c r="AX80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY80" s="13" t="s">
         <v>58</v>
@@ -12592,17 +12592,17 @@
       <c r="AH81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI81" s="16" t="s">
-        <v>58</v>
+      <c r="AI81" s="16" t="n">
+        <v>-5212</v>
       </c>
       <c r="AJ81" s="16" t="n">
-        <v>-5212</v>
+        <v>0</v>
       </c>
       <c r="AK81" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AL81" s="16" t="n">
-        <v>0</v>
+      <c r="AL81" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM81" s="16" t="s">
         <v>58</v>
@@ -12628,17 +12628,17 @@
       <c r="AT81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU81" s="16" t="s">
-        <v>58</v>
+      <c r="AU81" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AV81" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW81" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX81" s="16" t="n">
         <v>-6083</v>
+      </c>
+      <c r="AX81" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY81" s="16" t="s">
         <v>58</v>
@@ -12757,11 +12757,11 @@
       <c r="AJ82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL82" s="13" t="n">
-        <v>0</v>
+      <c r="AK82" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM82" s="13" t="s">
         <v>58</v>
@@ -12775,8 +12775,8 @@
       <c r="AP82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ82" s="13" t="s">
-        <v>58</v>
+      <c r="AQ82" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AR82" s="13" t="n">
         <v>0</v>
@@ -12787,8 +12787,8 @@
       <c r="AT82" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU82" s="13" t="n">
-        <v>0</v>
+      <c r="AU82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV82" s="13" t="s">
         <v>58</v>
@@ -12952,23 +12952,23 @@
       <c r="AV83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AW83" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX83" s="16" t="n">
+      <c r="AW83" s="16" t="n">
         <v>-1934</v>
       </c>
+      <c r="AX83" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AY83" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AZ83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA83" s="16" t="s">
-        <v>58</v>
+      <c r="BA83" s="16" t="n">
+        <v>-8574</v>
       </c>
       <c r="BB83" s="16" t="n">
-        <v>-8574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13042,8 +13042,8 @@
       <c r="Y84" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Z84" s="18" t="s">
-        <v>58</v>
+      <c r="Z84" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AA84" s="22" t="n">
         <v>0</v>
@@ -13052,10 +13052,10 @@
         <v>0</v>
       </c>
       <c r="AC84" s="22" t="n">
-        <v>0</v>
+        <v>-441</v>
       </c>
       <c r="AD84" s="22" t="n">
-        <v>-441</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="22" t="n">
         <v>0</v>
@@ -13070,10 +13070,10 @@
         <v>0</v>
       </c>
       <c r="AI84" s="22" t="n">
-        <v>0</v>
+        <v>-5212</v>
       </c>
       <c r="AJ84" s="22" t="n">
-        <v>-5212</v>
+        <v>0</v>
       </c>
       <c r="AK84" s="22" t="n">
         <v>0</v>
@@ -13094,10 +13094,10 @@
         <v>0</v>
       </c>
       <c r="AQ84" s="22" t="n">
-        <v>0</v>
+        <v>-11065</v>
       </c>
       <c r="AR84" s="22" t="n">
-        <v>-11065</v>
+        <v>0</v>
       </c>
       <c r="AS84" s="22" t="n">
         <v>0</v>
@@ -13112,10 +13112,10 @@
         <v>0</v>
       </c>
       <c r="AW84" s="22" t="n">
-        <v>0</v>
+        <v>-8017</v>
       </c>
       <c r="AX84" s="22" t="n">
-        <v>-8017</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="22" t="n">
         <v>0</v>
@@ -13124,10 +13124,10 @@
         <v>0</v>
       </c>
       <c r="BA84" s="22" t="n">
-        <v>0</v>
+        <v>-8574</v>
       </c>
       <c r="BB84" s="22" t="n">
-        <v>-8574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13258,8 +13258,8 @@
       <c r="Y86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="13" t="s">
-        <v>58</v>
+      <c r="Z86" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA86" s="13" t="n">
         <v>0</v>
@@ -13416,91 +13416,91 @@
         <v>0</v>
       </c>
       <c r="Z87" s="21" t="n">
-        <v>0</v>
+        <v>712449</v>
       </c>
       <c r="AA87" s="21" t="n">
-        <v>712449</v>
+        <v>807725</v>
       </c>
       <c r="AB87" s="21" t="n">
-        <v>807725</v>
+        <v>771000</v>
       </c>
       <c r="AC87" s="21" t="n">
-        <v>771000</v>
+        <v>845413</v>
       </c>
       <c r="AD87" s="21" t="n">
-        <v>845413</v>
+        <v>752967</v>
       </c>
       <c r="AE87" s="21" t="n">
-        <v>752967</v>
+        <v>1158257</v>
       </c>
       <c r="AF87" s="21" t="n">
-        <v>1158257</v>
+        <v>707148</v>
       </c>
       <c r="AG87" s="21" t="n">
-        <v>707148</v>
+        <v>719830</v>
       </c>
       <c r="AH87" s="21" t="n">
-        <v>719830</v>
+        <v>815285</v>
       </c>
       <c r="AI87" s="21" t="n">
-        <v>815285</v>
+        <v>889997</v>
       </c>
       <c r="AJ87" s="21" t="n">
-        <v>889997</v>
+        <v>914879</v>
       </c>
       <c r="AK87" s="21" t="n">
-        <v>914879</v>
+        <v>1334567</v>
       </c>
       <c r="AL87" s="21" t="n">
-        <v>1334567</v>
+        <v>848215</v>
       </c>
       <c r="AM87" s="21" t="n">
-        <v>848215</v>
+        <v>1001672</v>
       </c>
       <c r="AN87" s="21" t="n">
-        <v>1001672</v>
+        <v>1105657</v>
       </c>
       <c r="AO87" s="21" t="n">
-        <v>1105657</v>
+        <v>792572</v>
       </c>
       <c r="AP87" s="21" t="n">
-        <v>792572</v>
+        <v>1160902</v>
       </c>
       <c r="AQ87" s="21" t="n">
-        <v>1160902</v>
+        <v>1196061</v>
       </c>
       <c r="AR87" s="21" t="n">
-        <v>1196061</v>
+        <v>1315470</v>
       </c>
       <c r="AS87" s="21" t="n">
-        <v>1315470</v>
+        <v>1321656</v>
       </c>
       <c r="AT87" s="21" t="n">
-        <v>1321656</v>
+        <v>1185841</v>
       </c>
       <c r="AU87" s="21" t="n">
-        <v>1185841</v>
+        <v>1314230</v>
       </c>
       <c r="AV87" s="21" t="n">
-        <v>1314230</v>
+        <v>1061036</v>
       </c>
       <c r="AW87" s="21" t="n">
-        <v>1061036</v>
+        <v>1989931</v>
       </c>
       <c r="AX87" s="21" t="n">
-        <v>1989931</v>
+        <v>1170154</v>
       </c>
       <c r="AY87" s="21" t="n">
-        <v>1170154</v>
+        <v>1028846</v>
       </c>
       <c r="AZ87" s="21" t="n">
-        <v>1028846</v>
+        <v>1413004</v>
       </c>
       <c r="BA87" s="21" t="n">
-        <v>1413004</v>
+        <v>1106413</v>
       </c>
       <c r="BB87" s="21" t="n">
-        <v>1106413</v>
+        <v>1095987</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14008,12 +14008,12 @@
       <c r="Y94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA94" s="13" t="n">
+      <c r="Z94" s="13" t="n">
         <v>112200000</v>
       </c>
+      <c r="AA94" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB94" s="13" t="s">
         <v>58</v>
       </c>
@@ -14050,11 +14050,11 @@
       <c r="AM94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO94" s="13" t="n">
+      <c r="AN94" s="13" t="n">
         <v>1500000000</v>
+      </c>
+      <c r="AO94" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP94" s="13" t="s">
         <v>58</v>
@@ -14167,92 +14167,92 @@
       <c r="Y95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z95" s="16" t="s">
-        <v>58</v>
+      <c r="Z95" s="16" t="n">
+        <v>104510204</v>
       </c>
       <c r="AA95" s="16" t="n">
-        <v>104510204</v>
+        <v>107147059</v>
       </c>
       <c r="AB95" s="16" t="n">
-        <v>107147059</v>
+        <v>111286420</v>
       </c>
       <c r="AC95" s="16" t="n">
-        <v>111286420</v>
-      </c>
-      <c r="AD95" s="16" t="n">
         <v>103645503</v>
       </c>
-      <c r="AE95" s="16" t="s">
-        <v>58</v>
+      <c r="AD95" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE95" s="16" t="n">
+        <v>119715128</v>
       </c>
       <c r="AF95" s="16" t="n">
-        <v>119715128</v>
+        <v>144826211</v>
       </c>
       <c r="AG95" s="16" t="n">
-        <v>144826211</v>
+        <v>148083770</v>
       </c>
       <c r="AH95" s="16" t="n">
-        <v>148083770</v>
+        <v>138567426</v>
       </c>
       <c r="AI95" s="16" t="n">
-        <v>138567426</v>
+        <v>147333333</v>
       </c>
       <c r="AJ95" s="16" t="n">
-        <v>147333333</v>
+        <v>144695015</v>
       </c>
       <c r="AK95" s="16" t="n">
-        <v>144695015</v>
+        <v>125586207</v>
       </c>
       <c r="AL95" s="16" t="n">
-        <v>125586207</v>
+        <v>138090508</v>
       </c>
       <c r="AM95" s="16" t="n">
-        <v>138090508</v>
+        <v>176690667</v>
       </c>
       <c r="AN95" s="16" t="n">
-        <v>176690667</v>
+        <v>186102133</v>
       </c>
       <c r="AO95" s="16" t="n">
-        <v>186102133</v>
+        <v>193111001</v>
       </c>
       <c r="AP95" s="16" t="n">
-        <v>193111001</v>
+        <v>202641950</v>
       </c>
       <c r="AQ95" s="16" t="n">
-        <v>202641950</v>
+        <v>179581232</v>
       </c>
       <c r="AR95" s="16" t="n">
-        <v>179581232</v>
+        <v>217353919</v>
       </c>
       <c r="AS95" s="16" t="n">
-        <v>217353919</v>
+        <v>172459397</v>
       </c>
       <c r="AT95" s="16" t="n">
-        <v>172459397</v>
+        <v>194908806</v>
       </c>
       <c r="AU95" s="16" t="n">
-        <v>194908806</v>
+        <v>216306081</v>
       </c>
       <c r="AV95" s="16" t="n">
-        <v>216306081</v>
+        <v>218462523</v>
       </c>
       <c r="AW95" s="16" t="n">
-        <v>218462523</v>
+        <v>728925668</v>
       </c>
       <c r="AX95" s="16" t="n">
-        <v>728925668</v>
+        <v>204588926</v>
       </c>
       <c r="AY95" s="16" t="n">
-        <v>204588926</v>
+        <v>197617574</v>
       </c>
       <c r="AZ95" s="16" t="n">
-        <v>197617574</v>
+        <v>214223560</v>
       </c>
       <c r="BA95" s="16" t="n">
-        <v>214223560</v>
+        <v>207930014</v>
       </c>
       <c r="BB95" s="16" t="n">
-        <v>207930014</v>
+        <v>246813606</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14326,92 +14326,92 @@
       <c r="Y96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z96" s="13" t="s">
-        <v>58</v>
+      <c r="Z96" s="13" t="n">
+        <v>110135354</v>
       </c>
       <c r="AA96" s="13" t="n">
-        <v>110135354</v>
+        <v>114162927</v>
       </c>
       <c r="AB96" s="13" t="n">
-        <v>114162927</v>
+        <v>121184615</v>
       </c>
       <c r="AC96" s="13" t="n">
-        <v>121184615</v>
+        <v>125701783</v>
       </c>
       <c r="AD96" s="13" t="n">
-        <v>125701783</v>
+        <v>131023672</v>
       </c>
       <c r="AE96" s="13" t="n">
-        <v>131023672</v>
+        <v>153095025</v>
       </c>
       <c r="AF96" s="13" t="n">
-        <v>153095025</v>
+        <v>155102134</v>
       </c>
       <c r="AG96" s="13" t="n">
-        <v>155102134</v>
+        <v>135592016</v>
       </c>
       <c r="AH96" s="13" t="n">
-        <v>135592016</v>
+        <v>120656738</v>
       </c>
       <c r="AI96" s="13" t="n">
-        <v>120656738</v>
+        <v>117285199</v>
       </c>
       <c r="AJ96" s="13" t="n">
-        <v>117285199</v>
+        <v>115303879</v>
       </c>
       <c r="AK96" s="13" t="n">
-        <v>115303879</v>
+        <v>122436303</v>
       </c>
       <c r="AL96" s="13" t="n">
-        <v>122436303</v>
+        <v>132094536</v>
       </c>
       <c r="AM96" s="13" t="n">
-        <v>132094536</v>
+        <v>134500894</v>
       </c>
       <c r="AN96" s="13" t="n">
-        <v>134500894</v>
+        <v>145091837</v>
       </c>
       <c r="AO96" s="13" t="n">
-        <v>145091837</v>
+        <v>152818584</v>
       </c>
       <c r="AP96" s="13" t="n">
-        <v>152818584</v>
+        <v>160730249</v>
       </c>
       <c r="AQ96" s="13" t="n">
-        <v>160730249</v>
+        <v>163136459</v>
       </c>
       <c r="AR96" s="13" t="n">
-        <v>163136459</v>
+        <v>167694370</v>
       </c>
       <c r="AS96" s="13" t="n">
-        <v>167694370</v>
+        <v>169637658</v>
       </c>
       <c r="AT96" s="13" t="n">
-        <v>169637658</v>
+        <v>173488441</v>
       </c>
       <c r="AU96" s="13" t="n">
-        <v>173488441</v>
+        <v>172293844</v>
       </c>
       <c r="AV96" s="13" t="n">
-        <v>172293844</v>
+        <v>169731830</v>
       </c>
       <c r="AW96" s="13" t="n">
-        <v>169731830</v>
+        <v>155977086</v>
       </c>
       <c r="AX96" s="13" t="n">
-        <v>155977086</v>
+        <v>158722089</v>
       </c>
       <c r="AY96" s="13" t="n">
-        <v>158722089</v>
+        <v>159389402</v>
       </c>
       <c r="AZ96" s="13" t="n">
-        <v>159389402</v>
+        <v>158233193</v>
       </c>
       <c r="BA96" s="13" t="n">
-        <v>158233193</v>
+        <v>158893026</v>
       </c>
       <c r="BB96" s="13" t="n">
-        <v>158893026</v>
+        <v>162254401</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14485,92 +14485,92 @@
       <c r="Y97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z97" s="16" t="s">
-        <v>58</v>
+      <c r="Z97" s="16" t="n">
+        <v>157256720</v>
       </c>
       <c r="AA97" s="16" t="n">
-        <v>157256720</v>
+        <v>161679036</v>
       </c>
       <c r="AB97" s="16" t="n">
-        <v>161679036</v>
+        <v>159366505</v>
       </c>
       <c r="AC97" s="16" t="n">
-        <v>159366505</v>
+        <v>152992167</v>
       </c>
       <c r="AD97" s="16" t="n">
-        <v>152992167</v>
+        <v>194598786</v>
       </c>
       <c r="AE97" s="16" t="n">
-        <v>194598786</v>
+        <v>198080928</v>
       </c>
       <c r="AF97" s="16" t="n">
-        <v>198080928</v>
+        <v>185921713</v>
       </c>
       <c r="AG97" s="16" t="n">
-        <v>185921713</v>
+        <v>192618992</v>
       </c>
       <c r="AH97" s="16" t="n">
-        <v>192618992</v>
+        <v>184935950</v>
       </c>
       <c r="AI97" s="16" t="n">
-        <v>184935950</v>
+        <v>219171889</v>
       </c>
       <c r="AJ97" s="16" t="n">
-        <v>219171889</v>
+        <v>189771886</v>
       </c>
       <c r="AK97" s="16" t="n">
-        <v>189771886</v>
+        <v>225602174</v>
       </c>
       <c r="AL97" s="16" t="n">
-        <v>225602174</v>
+        <v>238329643</v>
       </c>
       <c r="AM97" s="16" t="n">
-        <v>238329643</v>
+        <v>240558602</v>
       </c>
       <c r="AN97" s="16" t="n">
-        <v>240558602</v>
+        <v>239197974</v>
       </c>
       <c r="AO97" s="16" t="n">
-        <v>239197974</v>
+        <v>232757576</v>
       </c>
       <c r="AP97" s="16" t="n">
-        <v>232757576</v>
+        <v>237500000</v>
       </c>
       <c r="AQ97" s="16" t="n">
-        <v>237500000</v>
+        <v>206106481</v>
       </c>
       <c r="AR97" s="16" t="n">
-        <v>206106481</v>
+        <v>259730620</v>
       </c>
       <c r="AS97" s="16" t="n">
-        <v>259730620</v>
+        <v>285383817</v>
       </c>
       <c r="AT97" s="16" t="n">
-        <v>285383817</v>
+        <v>224688034</v>
       </c>
       <c r="AU97" s="16" t="n">
-        <v>224688034</v>
+        <v>239054839</v>
       </c>
       <c r="AV97" s="16" t="n">
-        <v>239054839</v>
+        <v>195200000</v>
       </c>
       <c r="AW97" s="16" t="n">
-        <v>195200000</v>
+        <v>264960894</v>
       </c>
       <c r="AX97" s="16" t="n">
-        <v>264960894</v>
+        <v>246700236</v>
       </c>
       <c r="AY97" s="16" t="n">
-        <v>246700236</v>
+        <v>259947718</v>
       </c>
       <c r="AZ97" s="16" t="n">
-        <v>259947718</v>
+        <v>260262093</v>
       </c>
       <c r="BA97" s="16" t="n">
-        <v>260262093</v>
-      </c>
-      <c r="BB97" s="16" t="n">
         <v>271869176</v>
+      </c>
+      <c r="BB97" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14653,83 +14653,83 @@
       <c r="AB98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC98" s="13" t="s">
-        <v>58</v>
+      <c r="AC98" s="13" t="n">
+        <v>152155556</v>
       </c>
       <c r="AD98" s="13" t="n">
-        <v>152155556</v>
+        <v>165623188</v>
       </c>
       <c r="AE98" s="13" t="n">
-        <v>165623188</v>
+        <v>190736086</v>
       </c>
       <c r="AF98" s="13" t="n">
-        <v>190736086</v>
-      </c>
-      <c r="AG98" s="13" t="n">
         <v>181136364</v>
       </c>
-      <c r="AH98" s="13" t="s">
-        <v>58</v>
+      <c r="AG98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH98" s="13" t="n">
+        <v>187716418</v>
       </c>
       <c r="AI98" s="13" t="n">
-        <v>187716418</v>
+        <v>186173913</v>
       </c>
       <c r="AJ98" s="13" t="n">
-        <v>186173913</v>
+        <v>183349835</v>
       </c>
       <c r="AK98" s="13" t="n">
-        <v>183349835</v>
+        <v>192787990</v>
       </c>
       <c r="AL98" s="13" t="n">
-        <v>192787990</v>
+        <v>202624685</v>
       </c>
       <c r="AM98" s="13" t="n">
-        <v>202624685</v>
+        <v>209508523</v>
       </c>
       <c r="AN98" s="13" t="n">
-        <v>209508523</v>
+        <v>215420857</v>
       </c>
       <c r="AO98" s="13" t="n">
-        <v>215420857</v>
+        <v>225278049</v>
       </c>
       <c r="AP98" s="13" t="n">
-        <v>225278049</v>
+        <v>251000000</v>
       </c>
       <c r="AQ98" s="13" t="n">
-        <v>251000000</v>
+        <v>288115044</v>
       </c>
       <c r="AR98" s="13" t="n">
-        <v>288115044</v>
+        <v>295812249</v>
       </c>
       <c r="AS98" s="13" t="n">
-        <v>295812249</v>
+        <v>305331579</v>
       </c>
       <c r="AT98" s="13" t="n">
-        <v>305331579</v>
+        <v>273379747</v>
       </c>
       <c r="AU98" s="13" t="n">
-        <v>273379747</v>
+        <v>243343990</v>
       </c>
       <c r="AV98" s="13" t="n">
-        <v>243343990</v>
+        <v>222620741</v>
       </c>
       <c r="AW98" s="13" t="n">
-        <v>222620741</v>
+        <v>212337920</v>
       </c>
       <c r="AX98" s="13" t="n">
-        <v>212337920</v>
+        <v>201982558</v>
       </c>
       <c r="AY98" s="13" t="n">
-        <v>201982558</v>
+        <v>233316667</v>
       </c>
       <c r="AZ98" s="13" t="n">
-        <v>233316667</v>
+        <v>232405854</v>
       </c>
       <c r="BA98" s="13" t="n">
-        <v>232405854</v>
+        <v>226310463</v>
       </c>
       <c r="BB98" s="13" t="n">
-        <v>226310463</v>
+        <v>235322165</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14803,11 +14803,11 @@
       <c r="Y99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z99" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA99" s="16" t="n">
+      <c r="Z99" s="16" t="n">
         <v>62000000</v>
+      </c>
+      <c r="AA99" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AB99" s="16" t="s">
         <v>58</v>
@@ -15022,41 +15022,41 @@
       <c r="Z101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA101" s="13" t="s">
-        <v>58</v>
+      <c r="AA101" s="13" t="n">
+        <v>120958333</v>
       </c>
       <c r="AB101" s="13" t="n">
-        <v>120958333</v>
+        <v>140044386</v>
       </c>
       <c r="AC101" s="13" t="n">
-        <v>140044386</v>
-      </c>
-      <c r="AD101" s="13" t="n">
         <v>110468750</v>
       </c>
-      <c r="AE101" s="13" t="s">
-        <v>58</v>
+      <c r="AD101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE101" s="13" t="n">
+        <v>135909434</v>
       </c>
       <c r="AF101" s="13" t="n">
-        <v>135909434</v>
+        <v>151431818</v>
       </c>
       <c r="AG101" s="13" t="n">
-        <v>151431818</v>
+        <v>112124088</v>
       </c>
       <c r="AH101" s="13" t="n">
-        <v>112124088</v>
+        <v>145429851</v>
       </c>
       <c r="AI101" s="13" t="n">
-        <v>145429851</v>
-      </c>
-      <c r="AJ101" s="13" t="n">
         <v>210510638</v>
       </c>
-      <c r="AK101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL101" s="13" t="n">
+      <c r="AJ101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK101" s="13" t="n">
         <v>827562500</v>
+      </c>
+      <c r="AL101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM101" s="13" t="s">
         <v>58</v>
@@ -15196,74 +15196,74 @@
       <c r="AE102" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF102" s="16" t="s">
-        <v>58</v>
+      <c r="AF102" s="16" t="n">
+        <v>143750000</v>
       </c>
       <c r="AG102" s="16" t="n">
-        <v>143750000</v>
-      </c>
-      <c r="AH102" s="16" t="n">
         <v>131890110</v>
       </c>
-      <c r="AI102" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ102" s="16" t="n">
+      <c r="AH102" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI102" s="16" t="n">
         <v>123500000</v>
       </c>
-      <c r="AK102" s="16" t="s">
-        <v>58</v>
+      <c r="AJ102" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK102" s="16" t="n">
+        <v>8200000</v>
       </c>
       <c r="AL102" s="16" t="n">
-        <v>8200000</v>
+        <v>158893048</v>
       </c>
       <c r="AM102" s="16" t="n">
-        <v>158893048</v>
+        <v>168553719</v>
       </c>
       <c r="AN102" s="16" t="n">
-        <v>168553719</v>
+        <v>158812500</v>
       </c>
       <c r="AO102" s="16" t="n">
-        <v>158812500</v>
-      </c>
-      <c r="AP102" s="16" t="n">
         <v>154524590</v>
       </c>
-      <c r="AQ102" s="16" t="s">
-        <v>58</v>
+      <c r="AP102" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ102" s="16" t="n">
+        <v>166104167</v>
       </c>
       <c r="AR102" s="16" t="n">
-        <v>166104167</v>
+        <v>174173913</v>
       </c>
       <c r="AS102" s="16" t="n">
-        <v>174173913</v>
-      </c>
-      <c r="AT102" s="16" t="n">
         <v>181416667</v>
       </c>
+      <c r="AT102" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AU102" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV102" s="16" t="s">
-        <v>58</v>
+      <c r="AV102" s="16" t="n">
+        <v>149555556</v>
       </c>
       <c r="AW102" s="16" t="n">
-        <v>149555556</v>
-      </c>
-      <c r="AX102" s="16" t="n">
         <v>142246377</v>
       </c>
-      <c r="AY102" s="16" t="s">
-        <v>58</v>
+      <c r="AX102" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY102" s="16" t="n">
+        <v>128166667</v>
       </c>
       <c r="AZ102" s="16" t="n">
-        <v>128166667</v>
+        <v>129217391</v>
       </c>
       <c r="BA102" s="16" t="n">
-        <v>129217391</v>
-      </c>
-      <c r="BB102" s="16" t="n">
         <v>127468085</v>
+      </c>
+      <c r="BB102" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15337,51 +15337,51 @@
       <c r="Y103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA103" s="13" t="n">
+      <c r="Z103" s="13" t="n">
         <v>140819444</v>
       </c>
+      <c r="AA103" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC103" s="13" t="s">
-        <v>58</v>
+      <c r="AC103" s="13" t="n">
+        <v>139621247</v>
       </c>
       <c r="AD103" s="13" t="n">
-        <v>139621247</v>
+        <v>144404762</v>
       </c>
       <c r="AE103" s="13" t="n">
-        <v>144404762</v>
+        <v>136750000</v>
       </c>
       <c r="AF103" s="13" t="n">
-        <v>136750000</v>
+        <v>167181818</v>
       </c>
       <c r="AG103" s="13" t="n">
-        <v>167181818</v>
+        <v>183043956</v>
       </c>
       <c r="AH103" s="13" t="n">
-        <v>183043956</v>
+        <v>191944444</v>
       </c>
       <c r="AI103" s="13" t="n">
-        <v>191944444</v>
+        <v>204869565</v>
       </c>
       <c r="AJ103" s="13" t="n">
-        <v>204869565</v>
+        <v>199686567</v>
       </c>
       <c r="AK103" s="13" t="n">
-        <v>199686567</v>
+        <v>215571429</v>
       </c>
       <c r="AL103" s="13" t="n">
-        <v>215571429</v>
+        <v>201397059</v>
       </c>
       <c r="AM103" s="13" t="n">
-        <v>201397059</v>
-      </c>
-      <c r="AN103" s="13" t="n">
         <v>195294118</v>
       </c>
+      <c r="AN103" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO103" s="13" t="s">
         <v>58</v>
       </c>
@@ -15391,15 +15391,15 @@
       <c r="AQ103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR103" s="13" t="s">
-        <v>58</v>
+      <c r="AR103" s="13" t="n">
+        <v>207361702</v>
       </c>
       <c r="AS103" s="13" t="n">
-        <v>207361702</v>
-      </c>
-      <c r="AT103" s="13" t="n">
         <v>218000000</v>
       </c>
+      <c r="AT103" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU103" s="13" t="s">
         <v>58</v>
       </c>
@@ -15412,17 +15412,17 @@
       <c r="AX103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY103" s="13" t="s">
-        <v>58</v>
+      <c r="AY103" s="13" t="n">
+        <v>194956522</v>
       </c>
       <c r="AZ103" s="13" t="n">
-        <v>194956522</v>
+        <v>191623656</v>
       </c>
       <c r="BA103" s="13" t="n">
-        <v>191623656</v>
-      </c>
-      <c r="BB103" s="13" t="n">
         <v>192956522</v>
+      </c>
+      <c r="BB103" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15553,8 +15553,8 @@
       <c r="Y105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z105" s="13" t="s">
-        <v>58</v>
+      <c r="Z105" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AA105" s="13" t="n">
         <v>0</v>
@@ -15589,8 +15589,8 @@
       <c r="AK105" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL105" s="13" t="n">
-        <v>0</v>
+      <c r="AL105" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM105" s="13" t="s">
         <v>58</v>
